--- a/doc/table/人物等级表.xlsx
+++ b/doc/table/人物等级表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1395" yWindow="930" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>等级</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -27,6 +27,38 @@
   </si>
   <si>
     <t>升级所需经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物攻增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法攻增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物防增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化防增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真气增加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -56,12 +88,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -76,8 +114,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -379,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -392,7 +431,7 @@
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -402,8 +441,32 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -413,8 +476,32 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -424,8 +511,32 @@
       <c r="C3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>101</v>
+      </c>
+      <c r="K3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -435,8 +546,32 @@
       <c r="C4">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>102</v>
+      </c>
+      <c r="K4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -446,8 +581,32 @@
       <c r="C5">
         <v>300</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>103</v>
+      </c>
+      <c r="K5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -457,8 +616,32 @@
       <c r="C6">
         <v>400</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>104</v>
+      </c>
+      <c r="K6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -468,8 +651,32 @@
       <c r="C7">
         <v>500</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>105</v>
+      </c>
+      <c r="K7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -479,8 +686,32 @@
       <c r="C8">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>106</v>
+      </c>
+      <c r="K8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -490,8 +721,32 @@
       <c r="C9">
         <v>700</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>107</v>
+      </c>
+      <c r="K9">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -501,8 +756,32 @@
       <c r="C10">
         <v>800</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>108</v>
+      </c>
+      <c r="K10">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -512,8 +791,32 @@
       <c r="C11">
         <v>900</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>109</v>
+      </c>
+      <c r="K11">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -523,8 +826,32 @@
       <c r="C12">
         <v>1000</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
+      <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="J12">
+        <v>110</v>
+      </c>
+      <c r="K12">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -534,8 +861,32 @@
       <c r="C13">
         <v>1100</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <v>111</v>
+      </c>
+      <c r="K13">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -545,8 +896,32 @@
       <c r="C14">
         <v>1200</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <v>13</v>
+      </c>
+      <c r="J14">
+        <v>112</v>
+      </c>
+      <c r="K14">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -556,8 +931,32 @@
       <c r="C15">
         <v>1300</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <v>14</v>
+      </c>
+      <c r="I15">
+        <v>14</v>
+      </c>
+      <c r="J15">
+        <v>113</v>
+      </c>
+      <c r="K15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -567,8 +966,32 @@
       <c r="C16">
         <v>1400</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <v>15</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="J16">
+        <v>114</v>
+      </c>
+      <c r="K16">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -578,8 +1001,32 @@
       <c r="C17">
         <v>1500</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <v>16</v>
+      </c>
+      <c r="I17">
+        <v>16</v>
+      </c>
+      <c r="J17">
+        <v>115</v>
+      </c>
+      <c r="K17">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -589,8 +1036,32 @@
       <c r="C18">
         <v>1600</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>17</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <v>17</v>
+      </c>
+      <c r="I18">
+        <v>17</v>
+      </c>
+      <c r="J18">
+        <v>116</v>
+      </c>
+      <c r="K18">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -600,8 +1071,32 @@
       <c r="C19">
         <v>1700</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>18</v>
+      </c>
+      <c r="G19">
+        <v>18</v>
+      </c>
+      <c r="H19">
+        <v>18</v>
+      </c>
+      <c r="I19">
+        <v>18</v>
+      </c>
+      <c r="J19">
+        <v>117</v>
+      </c>
+      <c r="K19">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -611,8 +1106,32 @@
       <c r="C20">
         <v>1800</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <v>19</v>
+      </c>
+      <c r="G20">
+        <v>19</v>
+      </c>
+      <c r="H20">
+        <v>19</v>
+      </c>
+      <c r="I20">
+        <v>19</v>
+      </c>
+      <c r="J20">
+        <v>118</v>
+      </c>
+      <c r="K20">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -622,8 +1141,32 @@
       <c r="C21">
         <v>1900</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <v>20</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
+      </c>
+      <c r="J21">
+        <v>119</v>
+      </c>
+      <c r="K21">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -633,8 +1176,32 @@
       <c r="C22">
         <v>2000</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+      <c r="F22">
+        <v>21</v>
+      </c>
+      <c r="G22">
+        <v>21</v>
+      </c>
+      <c r="H22">
+        <v>21</v>
+      </c>
+      <c r="I22">
+        <v>21</v>
+      </c>
+      <c r="J22">
+        <v>120</v>
+      </c>
+      <c r="K22">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -644,8 +1211,32 @@
       <c r="C23">
         <v>2100</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>22</v>
+      </c>
+      <c r="F23">
+        <v>22</v>
+      </c>
+      <c r="G23">
+        <v>22</v>
+      </c>
+      <c r="H23">
+        <v>22</v>
+      </c>
+      <c r="I23">
+        <v>22</v>
+      </c>
+      <c r="J23">
+        <v>121</v>
+      </c>
+      <c r="K23">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -655,8 +1246,32 @@
       <c r="C24">
         <v>2200</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>23</v>
+      </c>
+      <c r="F24">
+        <v>23</v>
+      </c>
+      <c r="G24">
+        <v>23</v>
+      </c>
+      <c r="H24">
+        <v>23</v>
+      </c>
+      <c r="I24">
+        <v>23</v>
+      </c>
+      <c r="J24">
+        <v>122</v>
+      </c>
+      <c r="K24">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -666,8 +1281,32 @@
       <c r="C25">
         <v>2300</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>24</v>
+      </c>
+      <c r="F25">
+        <v>24</v>
+      </c>
+      <c r="G25">
+        <v>24</v>
+      </c>
+      <c r="H25">
+        <v>24</v>
+      </c>
+      <c r="I25">
+        <v>24</v>
+      </c>
+      <c r="J25">
+        <v>123</v>
+      </c>
+      <c r="K25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -677,8 +1316,32 @@
       <c r="C26">
         <v>2400</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>25</v>
+      </c>
+      <c r="F26">
+        <v>25</v>
+      </c>
+      <c r="G26">
+        <v>25</v>
+      </c>
+      <c r="H26">
+        <v>25</v>
+      </c>
+      <c r="I26">
+        <v>25</v>
+      </c>
+      <c r="J26">
+        <v>124</v>
+      </c>
+      <c r="K26">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -688,8 +1351,32 @@
       <c r="C27">
         <v>2500</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>26</v>
+      </c>
+      <c r="F27">
+        <v>26</v>
+      </c>
+      <c r="G27">
+        <v>26</v>
+      </c>
+      <c r="H27">
+        <v>26</v>
+      </c>
+      <c r="I27">
+        <v>26</v>
+      </c>
+      <c r="J27">
+        <v>125</v>
+      </c>
+      <c r="K27">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -699,8 +1386,32 @@
       <c r="C28">
         <v>2600</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>27</v>
+      </c>
+      <c r="F28">
+        <v>27</v>
+      </c>
+      <c r="G28">
+        <v>27</v>
+      </c>
+      <c r="H28">
+        <v>27</v>
+      </c>
+      <c r="I28">
+        <v>27</v>
+      </c>
+      <c r="J28">
+        <v>126</v>
+      </c>
+      <c r="K28">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -710,8 +1421,32 @@
       <c r="C29">
         <v>2700</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>28</v>
+      </c>
+      <c r="F29">
+        <v>28</v>
+      </c>
+      <c r="G29">
+        <v>28</v>
+      </c>
+      <c r="H29">
+        <v>28</v>
+      </c>
+      <c r="I29">
+        <v>28</v>
+      </c>
+      <c r="J29">
+        <v>127</v>
+      </c>
+      <c r="K29">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -721,8 +1456,32 @@
       <c r="C30">
         <v>2800</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>29</v>
+      </c>
+      <c r="F30">
+        <v>29</v>
+      </c>
+      <c r="G30">
+        <v>29</v>
+      </c>
+      <c r="H30">
+        <v>29</v>
+      </c>
+      <c r="I30">
+        <v>29</v>
+      </c>
+      <c r="J30">
+        <v>128</v>
+      </c>
+      <c r="K30">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -732,8 +1491,32 @@
       <c r="C31">
         <v>2900</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <v>30</v>
+      </c>
+      <c r="G31">
+        <v>30</v>
+      </c>
+      <c r="H31">
+        <v>30</v>
+      </c>
+      <c r="I31">
+        <v>30</v>
+      </c>
+      <c r="J31">
+        <v>129</v>
+      </c>
+      <c r="K31">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -743,8 +1526,32 @@
       <c r="C32">
         <v>3000</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>31</v>
+      </c>
+      <c r="F32">
+        <v>31</v>
+      </c>
+      <c r="G32">
+        <v>31</v>
+      </c>
+      <c r="H32">
+        <v>31</v>
+      </c>
+      <c r="I32">
+        <v>31</v>
+      </c>
+      <c r="J32">
+        <v>130</v>
+      </c>
+      <c r="K32">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -754,8 +1561,32 @@
       <c r="C33">
         <v>3100</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>32</v>
+      </c>
+      <c r="F33">
+        <v>32</v>
+      </c>
+      <c r="G33">
+        <v>32</v>
+      </c>
+      <c r="H33">
+        <v>32</v>
+      </c>
+      <c r="I33">
+        <v>32</v>
+      </c>
+      <c r="J33">
+        <v>131</v>
+      </c>
+      <c r="K33">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -765,8 +1596,32 @@
       <c r="C34">
         <v>3200</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>33</v>
+      </c>
+      <c r="F34">
+        <v>33</v>
+      </c>
+      <c r="G34">
+        <v>33</v>
+      </c>
+      <c r="H34">
+        <v>33</v>
+      </c>
+      <c r="I34">
+        <v>33</v>
+      </c>
+      <c r="J34">
+        <v>132</v>
+      </c>
+      <c r="K34">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -776,8 +1631,32 @@
       <c r="C35">
         <v>3300</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>34</v>
+      </c>
+      <c r="F35">
+        <v>34</v>
+      </c>
+      <c r="G35">
+        <v>34</v>
+      </c>
+      <c r="H35">
+        <v>34</v>
+      </c>
+      <c r="I35">
+        <v>34</v>
+      </c>
+      <c r="J35">
+        <v>133</v>
+      </c>
+      <c r="K35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -787,8 +1666,32 @@
       <c r="C36">
         <v>3400</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>35</v>
+      </c>
+      <c r="F36">
+        <v>35</v>
+      </c>
+      <c r="G36">
+        <v>35</v>
+      </c>
+      <c r="H36">
+        <v>35</v>
+      </c>
+      <c r="I36">
+        <v>35</v>
+      </c>
+      <c r="J36">
+        <v>134</v>
+      </c>
+      <c r="K36">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -798,8 +1701,32 @@
       <c r="C37">
         <v>3500</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>36</v>
+      </c>
+      <c r="F37">
+        <v>36</v>
+      </c>
+      <c r="G37">
+        <v>36</v>
+      </c>
+      <c r="H37">
+        <v>36</v>
+      </c>
+      <c r="I37">
+        <v>36</v>
+      </c>
+      <c r="J37">
+        <v>135</v>
+      </c>
+      <c r="K37">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -809,8 +1736,32 @@
       <c r="C38">
         <v>3600</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>37</v>
+      </c>
+      <c r="F38">
+        <v>37</v>
+      </c>
+      <c r="G38">
+        <v>37</v>
+      </c>
+      <c r="H38">
+        <v>37</v>
+      </c>
+      <c r="I38">
+        <v>37</v>
+      </c>
+      <c r="J38">
+        <v>136</v>
+      </c>
+      <c r="K38">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -820,8 +1771,32 @@
       <c r="C39">
         <v>3700</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>38</v>
+      </c>
+      <c r="F39">
+        <v>38</v>
+      </c>
+      <c r="G39">
+        <v>38</v>
+      </c>
+      <c r="H39">
+        <v>38</v>
+      </c>
+      <c r="I39">
+        <v>38</v>
+      </c>
+      <c r="J39">
+        <v>137</v>
+      </c>
+      <c r="K39">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -831,8 +1806,32 @@
       <c r="C40">
         <v>3800</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>39</v>
+      </c>
+      <c r="F40">
+        <v>39</v>
+      </c>
+      <c r="G40">
+        <v>39</v>
+      </c>
+      <c r="H40">
+        <v>39</v>
+      </c>
+      <c r="I40">
+        <v>39</v>
+      </c>
+      <c r="J40">
+        <v>138</v>
+      </c>
+      <c r="K40">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -842,8 +1841,32 @@
       <c r="C41">
         <v>3900</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>40</v>
+      </c>
+      <c r="F41">
+        <v>40</v>
+      </c>
+      <c r="G41">
+        <v>40</v>
+      </c>
+      <c r="H41">
+        <v>40</v>
+      </c>
+      <c r="I41">
+        <v>40</v>
+      </c>
+      <c r="J41">
+        <v>139</v>
+      </c>
+      <c r="K41">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -853,8 +1876,32 @@
       <c r="C42">
         <v>4000</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>41</v>
+      </c>
+      <c r="F42">
+        <v>41</v>
+      </c>
+      <c r="G42">
+        <v>41</v>
+      </c>
+      <c r="H42">
+        <v>41</v>
+      </c>
+      <c r="I42">
+        <v>41</v>
+      </c>
+      <c r="J42">
+        <v>140</v>
+      </c>
+      <c r="K42">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -864,8 +1911,32 @@
       <c r="C43">
         <v>4100</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>42</v>
+      </c>
+      <c r="F43">
+        <v>42</v>
+      </c>
+      <c r="G43">
+        <v>42</v>
+      </c>
+      <c r="H43">
+        <v>42</v>
+      </c>
+      <c r="I43">
+        <v>42</v>
+      </c>
+      <c r="J43">
+        <v>141</v>
+      </c>
+      <c r="K43">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -875,8 +1946,32 @@
       <c r="C44">
         <v>4200</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>43</v>
+      </c>
+      <c r="F44">
+        <v>43</v>
+      </c>
+      <c r="G44">
+        <v>43</v>
+      </c>
+      <c r="H44">
+        <v>43</v>
+      </c>
+      <c r="I44">
+        <v>43</v>
+      </c>
+      <c r="J44">
+        <v>142</v>
+      </c>
+      <c r="K44">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -886,8 +1981,32 @@
       <c r="C45">
         <v>4300</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>44</v>
+      </c>
+      <c r="F45">
+        <v>44</v>
+      </c>
+      <c r="G45">
+        <v>44</v>
+      </c>
+      <c r="H45">
+        <v>44</v>
+      </c>
+      <c r="I45">
+        <v>44</v>
+      </c>
+      <c r="J45">
+        <v>143</v>
+      </c>
+      <c r="K45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -897,8 +2016,32 @@
       <c r="C46">
         <v>4400</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>45</v>
+      </c>
+      <c r="F46">
+        <v>45</v>
+      </c>
+      <c r="G46">
+        <v>45</v>
+      </c>
+      <c r="H46">
+        <v>45</v>
+      </c>
+      <c r="I46">
+        <v>45</v>
+      </c>
+      <c r="J46">
+        <v>144</v>
+      </c>
+      <c r="K46">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
@@ -908,8 +2051,32 @@
       <c r="C47">
         <v>4500</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>46</v>
+      </c>
+      <c r="F47">
+        <v>46</v>
+      </c>
+      <c r="G47">
+        <v>46</v>
+      </c>
+      <c r="H47">
+        <v>46</v>
+      </c>
+      <c r="I47">
+        <v>46</v>
+      </c>
+      <c r="J47">
+        <v>145</v>
+      </c>
+      <c r="K47">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
@@ -919,8 +2086,32 @@
       <c r="C48">
         <v>4600</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>47</v>
+      </c>
+      <c r="F48">
+        <v>47</v>
+      </c>
+      <c r="G48">
+        <v>47</v>
+      </c>
+      <c r="H48">
+        <v>47</v>
+      </c>
+      <c r="I48">
+        <v>47</v>
+      </c>
+      <c r="J48">
+        <v>146</v>
+      </c>
+      <c r="K48">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
@@ -930,8 +2121,32 @@
       <c r="C49">
         <v>4700</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>48</v>
+      </c>
+      <c r="F49">
+        <v>48</v>
+      </c>
+      <c r="G49">
+        <v>48</v>
+      </c>
+      <c r="H49">
+        <v>48</v>
+      </c>
+      <c r="I49">
+        <v>48</v>
+      </c>
+      <c r="J49">
+        <v>147</v>
+      </c>
+      <c r="K49">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
@@ -941,8 +2156,32 @@
       <c r="C50">
         <v>4800</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>49</v>
+      </c>
+      <c r="F50">
+        <v>49</v>
+      </c>
+      <c r="G50">
+        <v>49</v>
+      </c>
+      <c r="H50">
+        <v>49</v>
+      </c>
+      <c r="I50">
+        <v>49</v>
+      </c>
+      <c r="J50">
+        <v>148</v>
+      </c>
+      <c r="K50">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
@@ -952,8 +2191,32 @@
       <c r="C51">
         <v>4900</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>50</v>
+      </c>
+      <c r="F51">
+        <v>50</v>
+      </c>
+      <c r="G51">
+        <v>50</v>
+      </c>
+      <c r="H51">
+        <v>50</v>
+      </c>
+      <c r="I51">
+        <v>50</v>
+      </c>
+      <c r="J51">
+        <v>149</v>
+      </c>
+      <c r="K51">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
@@ -963,8 +2226,32 @@
       <c r="C52">
         <v>5000</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>51</v>
+      </c>
+      <c r="F52">
+        <v>51</v>
+      </c>
+      <c r="G52">
+        <v>51</v>
+      </c>
+      <c r="H52">
+        <v>51</v>
+      </c>
+      <c r="I52">
+        <v>51</v>
+      </c>
+      <c r="J52">
+        <v>150</v>
+      </c>
+      <c r="K52">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
@@ -974,8 +2261,32 @@
       <c r="C53">
         <v>5100</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>52</v>
+      </c>
+      <c r="F53">
+        <v>52</v>
+      </c>
+      <c r="G53">
+        <v>52</v>
+      </c>
+      <c r="H53">
+        <v>52</v>
+      </c>
+      <c r="I53">
+        <v>52</v>
+      </c>
+      <c r="J53">
+        <v>151</v>
+      </c>
+      <c r="K53">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
@@ -985,8 +2296,32 @@
       <c r="C54">
         <v>5200</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>53</v>
+      </c>
+      <c r="F54">
+        <v>53</v>
+      </c>
+      <c r="G54">
+        <v>53</v>
+      </c>
+      <c r="H54">
+        <v>53</v>
+      </c>
+      <c r="I54">
+        <v>53</v>
+      </c>
+      <c r="J54">
+        <v>152</v>
+      </c>
+      <c r="K54">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
@@ -996,8 +2331,32 @@
       <c r="C55">
         <v>5300</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>54</v>
+      </c>
+      <c r="F55">
+        <v>54</v>
+      </c>
+      <c r="G55">
+        <v>54</v>
+      </c>
+      <c r="H55">
+        <v>54</v>
+      </c>
+      <c r="I55">
+        <v>54</v>
+      </c>
+      <c r="J55">
+        <v>153</v>
+      </c>
+      <c r="K55">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1007,8 +2366,32 @@
       <c r="C56">
         <v>5400</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>55</v>
+      </c>
+      <c r="F56">
+        <v>55</v>
+      </c>
+      <c r="G56">
+        <v>55</v>
+      </c>
+      <c r="H56">
+        <v>55</v>
+      </c>
+      <c r="I56">
+        <v>55</v>
+      </c>
+      <c r="J56">
+        <v>154</v>
+      </c>
+      <c r="K56">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1018,8 +2401,32 @@
       <c r="C57">
         <v>5500</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>56</v>
+      </c>
+      <c r="F57">
+        <v>56</v>
+      </c>
+      <c r="G57">
+        <v>56</v>
+      </c>
+      <c r="H57">
+        <v>56</v>
+      </c>
+      <c r="I57">
+        <v>56</v>
+      </c>
+      <c r="J57">
+        <v>155</v>
+      </c>
+      <c r="K57">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1029,8 +2436,32 @@
       <c r="C58">
         <v>5600</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>57</v>
+      </c>
+      <c r="F58">
+        <v>57</v>
+      </c>
+      <c r="G58">
+        <v>57</v>
+      </c>
+      <c r="H58">
+        <v>57</v>
+      </c>
+      <c r="I58">
+        <v>57</v>
+      </c>
+      <c r="J58">
+        <v>156</v>
+      </c>
+      <c r="K58">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1040,8 +2471,32 @@
       <c r="C59">
         <v>5700</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>58</v>
+      </c>
+      <c r="F59">
+        <v>58</v>
+      </c>
+      <c r="G59">
+        <v>58</v>
+      </c>
+      <c r="H59">
+        <v>58</v>
+      </c>
+      <c r="I59">
+        <v>58</v>
+      </c>
+      <c r="J59">
+        <v>157</v>
+      </c>
+      <c r="K59">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1051,8 +2506,32 @@
       <c r="C60">
         <v>5800</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>59</v>
+      </c>
+      <c r="F60">
+        <v>59</v>
+      </c>
+      <c r="G60">
+        <v>59</v>
+      </c>
+      <c r="H60">
+        <v>59</v>
+      </c>
+      <c r="I60">
+        <v>59</v>
+      </c>
+      <c r="J60">
+        <v>158</v>
+      </c>
+      <c r="K60">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1062,8 +2541,32 @@
       <c r="C61">
         <v>5900</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>60</v>
+      </c>
+      <c r="F61">
+        <v>60</v>
+      </c>
+      <c r="G61">
+        <v>60</v>
+      </c>
+      <c r="H61">
+        <v>60</v>
+      </c>
+      <c r="I61">
+        <v>60</v>
+      </c>
+      <c r="J61">
+        <v>159</v>
+      </c>
+      <c r="K61">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1073,8 +2576,32 @@
       <c r="C62">
         <v>6000</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>61</v>
+      </c>
+      <c r="F62">
+        <v>61</v>
+      </c>
+      <c r="G62">
+        <v>61</v>
+      </c>
+      <c r="H62">
+        <v>61</v>
+      </c>
+      <c r="I62">
+        <v>61</v>
+      </c>
+      <c r="J62">
+        <v>160</v>
+      </c>
+      <c r="K62">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1084,8 +2611,32 @@
       <c r="C63">
         <v>6100</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>62</v>
+      </c>
+      <c r="F63">
+        <v>62</v>
+      </c>
+      <c r="G63">
+        <v>62</v>
+      </c>
+      <c r="H63">
+        <v>62</v>
+      </c>
+      <c r="I63">
+        <v>62</v>
+      </c>
+      <c r="J63">
+        <v>161</v>
+      </c>
+      <c r="K63">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1095,8 +2646,32 @@
       <c r="C64">
         <v>6200</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>63</v>
+      </c>
+      <c r="F64">
+        <v>63</v>
+      </c>
+      <c r="G64">
+        <v>63</v>
+      </c>
+      <c r="H64">
+        <v>63</v>
+      </c>
+      <c r="I64">
+        <v>63</v>
+      </c>
+      <c r="J64">
+        <v>162</v>
+      </c>
+      <c r="K64">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1106,8 +2681,32 @@
       <c r="C65">
         <v>6300</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>64</v>
+      </c>
+      <c r="F65">
+        <v>64</v>
+      </c>
+      <c r="G65">
+        <v>64</v>
+      </c>
+      <c r="H65">
+        <v>64</v>
+      </c>
+      <c r="I65">
+        <v>64</v>
+      </c>
+      <c r="J65">
+        <v>163</v>
+      </c>
+      <c r="K65">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1117,8 +2716,32 @@
       <c r="C66">
         <v>6400</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>65</v>
+      </c>
+      <c r="F66">
+        <v>65</v>
+      </c>
+      <c r="G66">
+        <v>65</v>
+      </c>
+      <c r="H66">
+        <v>65</v>
+      </c>
+      <c r="I66">
+        <v>65</v>
+      </c>
+      <c r="J66">
+        <v>164</v>
+      </c>
+      <c r="K66">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1128,8 +2751,32 @@
       <c r="C67">
         <v>6500</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>66</v>
+      </c>
+      <c r="F67">
+        <v>66</v>
+      </c>
+      <c r="G67">
+        <v>66</v>
+      </c>
+      <c r="H67">
+        <v>66</v>
+      </c>
+      <c r="I67">
+        <v>66</v>
+      </c>
+      <c r="J67">
+        <v>165</v>
+      </c>
+      <c r="K67">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1139,8 +2786,32 @@
       <c r="C68">
         <v>6600</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>67</v>
+      </c>
+      <c r="F68">
+        <v>67</v>
+      </c>
+      <c r="G68">
+        <v>67</v>
+      </c>
+      <c r="H68">
+        <v>67</v>
+      </c>
+      <c r="I68">
+        <v>67</v>
+      </c>
+      <c r="J68">
+        <v>166</v>
+      </c>
+      <c r="K68">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1150,8 +2821,32 @@
       <c r="C69">
         <v>6700</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>68</v>
+      </c>
+      <c r="F69">
+        <v>68</v>
+      </c>
+      <c r="G69">
+        <v>68</v>
+      </c>
+      <c r="H69">
+        <v>68</v>
+      </c>
+      <c r="I69">
+        <v>68</v>
+      </c>
+      <c r="J69">
+        <v>167</v>
+      </c>
+      <c r="K69">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1161,8 +2856,32 @@
       <c r="C70">
         <v>6800</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>69</v>
+      </c>
+      <c r="F70">
+        <v>69</v>
+      </c>
+      <c r="G70">
+        <v>69</v>
+      </c>
+      <c r="H70">
+        <v>69</v>
+      </c>
+      <c r="I70">
+        <v>69</v>
+      </c>
+      <c r="J70">
+        <v>168</v>
+      </c>
+      <c r="K70">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1172,8 +2891,32 @@
       <c r="C71">
         <v>6900</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>70</v>
+      </c>
+      <c r="F71">
+        <v>70</v>
+      </c>
+      <c r="G71">
+        <v>70</v>
+      </c>
+      <c r="H71">
+        <v>70</v>
+      </c>
+      <c r="I71">
+        <v>70</v>
+      </c>
+      <c r="J71">
+        <v>169</v>
+      </c>
+      <c r="K71">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1183,8 +2926,32 @@
       <c r="C72">
         <v>7000</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>71</v>
+      </c>
+      <c r="F72">
+        <v>71</v>
+      </c>
+      <c r="G72">
+        <v>71</v>
+      </c>
+      <c r="H72">
+        <v>71</v>
+      </c>
+      <c r="I72">
+        <v>71</v>
+      </c>
+      <c r="J72">
+        <v>170</v>
+      </c>
+      <c r="K72">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1194,8 +2961,32 @@
       <c r="C73">
         <v>7100</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>72</v>
+      </c>
+      <c r="F73">
+        <v>72</v>
+      </c>
+      <c r="G73">
+        <v>72</v>
+      </c>
+      <c r="H73">
+        <v>72</v>
+      </c>
+      <c r="I73">
+        <v>72</v>
+      </c>
+      <c r="J73">
+        <v>171</v>
+      </c>
+      <c r="K73">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1205,8 +2996,32 @@
       <c r="C74">
         <v>7200</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>73</v>
+      </c>
+      <c r="F74">
+        <v>73</v>
+      </c>
+      <c r="G74">
+        <v>73</v>
+      </c>
+      <c r="H74">
+        <v>73</v>
+      </c>
+      <c r="I74">
+        <v>73</v>
+      </c>
+      <c r="J74">
+        <v>172</v>
+      </c>
+      <c r="K74">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1216,8 +3031,32 @@
       <c r="C75">
         <v>7300</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>74</v>
+      </c>
+      <c r="F75">
+        <v>74</v>
+      </c>
+      <c r="G75">
+        <v>74</v>
+      </c>
+      <c r="H75">
+        <v>74</v>
+      </c>
+      <c r="I75">
+        <v>74</v>
+      </c>
+      <c r="J75">
+        <v>173</v>
+      </c>
+      <c r="K75">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1227,8 +3066,32 @@
       <c r="C76">
         <v>7400</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>75</v>
+      </c>
+      <c r="F76">
+        <v>75</v>
+      </c>
+      <c r="G76">
+        <v>75</v>
+      </c>
+      <c r="H76">
+        <v>75</v>
+      </c>
+      <c r="I76">
+        <v>75</v>
+      </c>
+      <c r="J76">
+        <v>174</v>
+      </c>
+      <c r="K76">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1238,8 +3101,32 @@
       <c r="C77">
         <v>7500</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>76</v>
+      </c>
+      <c r="F77">
+        <v>76</v>
+      </c>
+      <c r="G77">
+        <v>76</v>
+      </c>
+      <c r="H77">
+        <v>76</v>
+      </c>
+      <c r="I77">
+        <v>76</v>
+      </c>
+      <c r="J77">
+        <v>175</v>
+      </c>
+      <c r="K77">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1249,8 +3136,32 @@
       <c r="C78">
         <v>7600</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>77</v>
+      </c>
+      <c r="F78">
+        <v>77</v>
+      </c>
+      <c r="G78">
+        <v>77</v>
+      </c>
+      <c r="H78">
+        <v>77</v>
+      </c>
+      <c r="I78">
+        <v>77</v>
+      </c>
+      <c r="J78">
+        <v>176</v>
+      </c>
+      <c r="K78">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1260,8 +3171,32 @@
       <c r="C79">
         <v>7700</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>78</v>
+      </c>
+      <c r="F79">
+        <v>78</v>
+      </c>
+      <c r="G79">
+        <v>78</v>
+      </c>
+      <c r="H79">
+        <v>78</v>
+      </c>
+      <c r="I79">
+        <v>78</v>
+      </c>
+      <c r="J79">
+        <v>177</v>
+      </c>
+      <c r="K79">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1271,8 +3206,32 @@
       <c r="C80">
         <v>7800</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>79</v>
+      </c>
+      <c r="F80">
+        <v>79</v>
+      </c>
+      <c r="G80">
+        <v>79</v>
+      </c>
+      <c r="H80">
+        <v>79</v>
+      </c>
+      <c r="I80">
+        <v>79</v>
+      </c>
+      <c r="J80">
+        <v>178</v>
+      </c>
+      <c r="K80">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1282,8 +3241,32 @@
       <c r="C81">
         <v>7900</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>80</v>
+      </c>
+      <c r="F81">
+        <v>80</v>
+      </c>
+      <c r="G81">
+        <v>80</v>
+      </c>
+      <c r="H81">
+        <v>80</v>
+      </c>
+      <c r="I81">
+        <v>80</v>
+      </c>
+      <c r="J81">
+        <v>179</v>
+      </c>
+      <c r="K81">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1293,8 +3276,32 @@
       <c r="C82">
         <v>8000</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>81</v>
+      </c>
+      <c r="F82">
+        <v>81</v>
+      </c>
+      <c r="G82">
+        <v>81</v>
+      </c>
+      <c r="H82">
+        <v>81</v>
+      </c>
+      <c r="I82">
+        <v>81</v>
+      </c>
+      <c r="J82">
+        <v>180</v>
+      </c>
+      <c r="K82">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1304,8 +3311,32 @@
       <c r="C83">
         <v>8100</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>82</v>
+      </c>
+      <c r="F83">
+        <v>82</v>
+      </c>
+      <c r="G83">
+        <v>82</v>
+      </c>
+      <c r="H83">
+        <v>82</v>
+      </c>
+      <c r="I83">
+        <v>82</v>
+      </c>
+      <c r="J83">
+        <v>181</v>
+      </c>
+      <c r="K83">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1315,8 +3346,32 @@
       <c r="C84">
         <v>8200</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>83</v>
+      </c>
+      <c r="F84">
+        <v>83</v>
+      </c>
+      <c r="G84">
+        <v>83</v>
+      </c>
+      <c r="H84">
+        <v>83</v>
+      </c>
+      <c r="I84">
+        <v>83</v>
+      </c>
+      <c r="J84">
+        <v>182</v>
+      </c>
+      <c r="K84">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1326,8 +3381,32 @@
       <c r="C85">
         <v>8300</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>84</v>
+      </c>
+      <c r="F85">
+        <v>84</v>
+      </c>
+      <c r="G85">
+        <v>84</v>
+      </c>
+      <c r="H85">
+        <v>84</v>
+      </c>
+      <c r="I85">
+        <v>84</v>
+      </c>
+      <c r="J85">
+        <v>183</v>
+      </c>
+      <c r="K85">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1337,8 +3416,32 @@
       <c r="C86">
         <v>8400</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>85</v>
+      </c>
+      <c r="F86">
+        <v>85</v>
+      </c>
+      <c r="G86">
+        <v>85</v>
+      </c>
+      <c r="H86">
+        <v>85</v>
+      </c>
+      <c r="I86">
+        <v>85</v>
+      </c>
+      <c r="J86">
+        <v>184</v>
+      </c>
+      <c r="K86">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1348,8 +3451,32 @@
       <c r="C87">
         <v>8500</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>86</v>
+      </c>
+      <c r="F87">
+        <v>86</v>
+      </c>
+      <c r="G87">
+        <v>86</v>
+      </c>
+      <c r="H87">
+        <v>86</v>
+      </c>
+      <c r="I87">
+        <v>86</v>
+      </c>
+      <c r="J87">
+        <v>185</v>
+      </c>
+      <c r="K87">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1359,8 +3486,32 @@
       <c r="C88">
         <v>8600</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>87</v>
+      </c>
+      <c r="F88">
+        <v>87</v>
+      </c>
+      <c r="G88">
+        <v>87</v>
+      </c>
+      <c r="H88">
+        <v>87</v>
+      </c>
+      <c r="I88">
+        <v>87</v>
+      </c>
+      <c r="J88">
+        <v>186</v>
+      </c>
+      <c r="K88">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1370,8 +3521,32 @@
       <c r="C89">
         <v>8700</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>88</v>
+      </c>
+      <c r="F89">
+        <v>88</v>
+      </c>
+      <c r="G89">
+        <v>88</v>
+      </c>
+      <c r="H89">
+        <v>88</v>
+      </c>
+      <c r="I89">
+        <v>88</v>
+      </c>
+      <c r="J89">
+        <v>187</v>
+      </c>
+      <c r="K89">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1381,8 +3556,32 @@
       <c r="C90">
         <v>8800</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>89</v>
+      </c>
+      <c r="F90">
+        <v>89</v>
+      </c>
+      <c r="G90">
+        <v>89</v>
+      </c>
+      <c r="H90">
+        <v>89</v>
+      </c>
+      <c r="I90">
+        <v>89</v>
+      </c>
+      <c r="J90">
+        <v>188</v>
+      </c>
+      <c r="K90">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1392,8 +3591,32 @@
       <c r="C91">
         <v>8900</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>90</v>
+      </c>
+      <c r="F91">
+        <v>90</v>
+      </c>
+      <c r="G91">
+        <v>90</v>
+      </c>
+      <c r="H91">
+        <v>90</v>
+      </c>
+      <c r="I91">
+        <v>90</v>
+      </c>
+      <c r="J91">
+        <v>189</v>
+      </c>
+      <c r="K91">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1403,8 +3626,32 @@
       <c r="C92">
         <v>9000</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>91</v>
+      </c>
+      <c r="F92">
+        <v>91</v>
+      </c>
+      <c r="G92">
+        <v>91</v>
+      </c>
+      <c r="H92">
+        <v>91</v>
+      </c>
+      <c r="I92">
+        <v>91</v>
+      </c>
+      <c r="J92">
+        <v>190</v>
+      </c>
+      <c r="K92">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>92</v>
       </c>
@@ -1414,8 +3661,32 @@
       <c r="C93">
         <v>9100</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>92</v>
+      </c>
+      <c r="F93">
+        <v>92</v>
+      </c>
+      <c r="G93">
+        <v>92</v>
+      </c>
+      <c r="H93">
+        <v>92</v>
+      </c>
+      <c r="I93">
+        <v>92</v>
+      </c>
+      <c r="J93">
+        <v>191</v>
+      </c>
+      <c r="K93">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>93</v>
       </c>
@@ -1425,8 +3696,32 @@
       <c r="C94">
         <v>9200</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>93</v>
+      </c>
+      <c r="F94">
+        <v>93</v>
+      </c>
+      <c r="G94">
+        <v>93</v>
+      </c>
+      <c r="H94">
+        <v>93</v>
+      </c>
+      <c r="I94">
+        <v>93</v>
+      </c>
+      <c r="J94">
+        <v>192</v>
+      </c>
+      <c r="K94">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>94</v>
       </c>
@@ -1436,8 +3731,32 @@
       <c r="C95">
         <v>9300</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>94</v>
+      </c>
+      <c r="F95">
+        <v>94</v>
+      </c>
+      <c r="G95">
+        <v>94</v>
+      </c>
+      <c r="H95">
+        <v>94</v>
+      </c>
+      <c r="I95">
+        <v>94</v>
+      </c>
+      <c r="J95">
+        <v>193</v>
+      </c>
+      <c r="K95">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>95</v>
       </c>
@@ -1447,8 +3766,32 @@
       <c r="C96">
         <v>9400</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>95</v>
+      </c>
+      <c r="F96">
+        <v>95</v>
+      </c>
+      <c r="G96">
+        <v>95</v>
+      </c>
+      <c r="H96">
+        <v>95</v>
+      </c>
+      <c r="I96">
+        <v>95</v>
+      </c>
+      <c r="J96">
+        <v>194</v>
+      </c>
+      <c r="K96">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>96</v>
       </c>
@@ -1458,8 +3801,32 @@
       <c r="C97">
         <v>9500</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>96</v>
+      </c>
+      <c r="F97">
+        <v>96</v>
+      </c>
+      <c r="G97">
+        <v>96</v>
+      </c>
+      <c r="H97">
+        <v>96</v>
+      </c>
+      <c r="I97">
+        <v>96</v>
+      </c>
+      <c r="J97">
+        <v>195</v>
+      </c>
+      <c r="K97">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>97</v>
       </c>
@@ -1469,8 +3836,32 @@
       <c r="C98">
         <v>9600</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>97</v>
+      </c>
+      <c r="F98">
+        <v>97</v>
+      </c>
+      <c r="G98">
+        <v>97</v>
+      </c>
+      <c r="H98">
+        <v>97</v>
+      </c>
+      <c r="I98">
+        <v>97</v>
+      </c>
+      <c r="J98">
+        <v>196</v>
+      </c>
+      <c r="K98">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>98</v>
       </c>
@@ -1480,8 +3871,32 @@
       <c r="C99">
         <v>9700</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>98</v>
+      </c>
+      <c r="F99">
+        <v>98</v>
+      </c>
+      <c r="G99">
+        <v>98</v>
+      </c>
+      <c r="H99">
+        <v>98</v>
+      </c>
+      <c r="I99">
+        <v>98</v>
+      </c>
+      <c r="J99">
+        <v>197</v>
+      </c>
+      <c r="K99">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>99</v>
       </c>
@@ -1491,8 +3906,32 @@
       <c r="C100">
         <v>9800</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>99</v>
+      </c>
+      <c r="F100">
+        <v>99</v>
+      </c>
+      <c r="G100">
+        <v>99</v>
+      </c>
+      <c r="H100">
+        <v>99</v>
+      </c>
+      <c r="I100">
+        <v>99</v>
+      </c>
+      <c r="J100">
+        <v>198</v>
+      </c>
+      <c r="K100">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>100</v>
       </c>
@@ -1502,8 +3941,32 @@
       <c r="C101">
         <v>9900</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>100</v>
+      </c>
+      <c r="F101">
+        <v>100</v>
+      </c>
+      <c r="G101">
+        <v>100</v>
+      </c>
+      <c r="H101">
+        <v>100</v>
+      </c>
+      <c r="I101">
+        <v>100</v>
+      </c>
+      <c r="J101">
+        <v>199</v>
+      </c>
+      <c r="K101">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>101</v>
       </c>
@@ -1513,8 +3976,32 @@
       <c r="C102">
         <v>10000</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>101</v>
+      </c>
+      <c r="F102">
+        <v>101</v>
+      </c>
+      <c r="G102">
+        <v>101</v>
+      </c>
+      <c r="H102">
+        <v>101</v>
+      </c>
+      <c r="I102">
+        <v>101</v>
+      </c>
+      <c r="J102">
+        <v>200</v>
+      </c>
+      <c r="K102">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>102</v>
       </c>
@@ -1524,8 +4011,32 @@
       <c r="C103">
         <v>10100</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>102</v>
+      </c>
+      <c r="F103">
+        <v>102</v>
+      </c>
+      <c r="G103">
+        <v>102</v>
+      </c>
+      <c r="H103">
+        <v>102</v>
+      </c>
+      <c r="I103">
+        <v>102</v>
+      </c>
+      <c r="J103">
+        <v>201</v>
+      </c>
+      <c r="K103">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>103</v>
       </c>
@@ -1535,8 +4046,32 @@
       <c r="C104">
         <v>10200</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>103</v>
+      </c>
+      <c r="F104">
+        <v>103</v>
+      </c>
+      <c r="G104">
+        <v>103</v>
+      </c>
+      <c r="H104">
+        <v>103</v>
+      </c>
+      <c r="I104">
+        <v>103</v>
+      </c>
+      <c r="J104">
+        <v>202</v>
+      </c>
+      <c r="K104">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>104</v>
       </c>
@@ -1546,8 +4081,32 @@
       <c r="C105">
         <v>10300</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>104</v>
+      </c>
+      <c r="F105">
+        <v>104</v>
+      </c>
+      <c r="G105">
+        <v>104</v>
+      </c>
+      <c r="H105">
+        <v>104</v>
+      </c>
+      <c r="I105">
+        <v>104</v>
+      </c>
+      <c r="J105">
+        <v>203</v>
+      </c>
+      <c r="K105">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>105</v>
       </c>
@@ -1557,8 +4116,32 @@
       <c r="C106">
         <v>10400</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>105</v>
+      </c>
+      <c r="F106">
+        <v>105</v>
+      </c>
+      <c r="G106">
+        <v>105</v>
+      </c>
+      <c r="H106">
+        <v>105</v>
+      </c>
+      <c r="I106">
+        <v>105</v>
+      </c>
+      <c r="J106">
+        <v>204</v>
+      </c>
+      <c r="K106">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>106</v>
       </c>
@@ -1568,8 +4151,32 @@
       <c r="C107">
         <v>10500</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>106</v>
+      </c>
+      <c r="F107">
+        <v>106</v>
+      </c>
+      <c r="G107">
+        <v>106</v>
+      </c>
+      <c r="H107">
+        <v>106</v>
+      </c>
+      <c r="I107">
+        <v>106</v>
+      </c>
+      <c r="J107">
+        <v>205</v>
+      </c>
+      <c r="K107">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>107</v>
       </c>
@@ -1579,8 +4186,32 @@
       <c r="C108">
         <v>10600</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>107</v>
+      </c>
+      <c r="F108">
+        <v>107</v>
+      </c>
+      <c r="G108">
+        <v>107</v>
+      </c>
+      <c r="H108">
+        <v>107</v>
+      </c>
+      <c r="I108">
+        <v>107</v>
+      </c>
+      <c r="J108">
+        <v>206</v>
+      </c>
+      <c r="K108">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>108</v>
       </c>
@@ -1589,6 +4220,30 @@
       </c>
       <c r="C109">
         <v>10700</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>108</v>
+      </c>
+      <c r="F109">
+        <v>108</v>
+      </c>
+      <c r="G109">
+        <v>108</v>
+      </c>
+      <c r="H109">
+        <v>108</v>
+      </c>
+      <c r="I109">
+        <v>108</v>
+      </c>
+      <c r="J109">
+        <v>207</v>
+      </c>
+      <c r="K109">
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/人物等级表.xlsx
+++ b/doc/table/人物等级表.xlsx
@@ -11,7 +11,7 @@
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -421,7 +421,7 @@
   <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -480,19 +480,19 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J2">
         <v>100</v>
@@ -506,7 +506,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -515,22 +515,22 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K3">
         <v>101</v>
@@ -541,31 +541,32 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="C4">
-        <v>200</v>
+        <f>FLOOR(C3*1.2,1)</f>
+        <v>120</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J4">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="K4">
         <v>102</v>
@@ -576,31 +577,32 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="C5">
-        <v>300</v>
+        <f t="shared" ref="C5:C68" si="0">FLOOR(C4*1.2,1)</f>
+        <v>144</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J5">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="K5">
         <v>103</v>
@@ -611,31 +613,32 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="C6">
-        <v>400</v>
+        <f t="shared" si="0"/>
+        <v>172</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J6">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="K6">
         <v>104</v>
@@ -646,31 +649,32 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="C7">
-        <v>500</v>
+        <f t="shared" si="0"/>
+        <v>206</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J7">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K7">
         <v>105</v>
@@ -681,31 +685,32 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>700</v>
+        <v>220</v>
       </c>
       <c r="C8">
-        <v>600</v>
+        <f t="shared" si="0"/>
+        <v>247</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I8">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="J8">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="K8">
         <v>106</v>
@@ -716,31 +721,32 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>800</v>
+        <v>240</v>
       </c>
       <c r="C9">
-        <v>700</v>
+        <f t="shared" si="0"/>
+        <v>296</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I9">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="J9">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="K9">
         <v>107</v>
@@ -751,31 +757,32 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>900</v>
+        <v>260</v>
       </c>
       <c r="C10">
-        <v>800</v>
+        <f t="shared" si="0"/>
+        <v>355</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="I10">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="J10">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="K10">
         <v>108</v>
@@ -786,31 +793,32 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="C11">
-        <v>900</v>
+        <f t="shared" si="0"/>
+        <v>426</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="J11">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="K11">
         <v>109</v>
@@ -821,31 +829,32 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="C12">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>511</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F12">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G12">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="I12">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="J12">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="K12">
         <v>110</v>
@@ -856,31 +865,32 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1200</v>
+        <v>320</v>
       </c>
       <c r="C13">
-        <v>1100</v>
+        <f t="shared" si="0"/>
+        <v>613</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G13">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I13">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="J13">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="K13">
         <v>111</v>
@@ -891,31 +901,32 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1300</v>
+        <v>340</v>
       </c>
       <c r="C14">
-        <v>1200</v>
+        <f t="shared" si="0"/>
+        <v>735</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F14">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G14">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="I14">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="J14">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="K14">
         <v>112</v>
@@ -926,31 +937,32 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1400</v>
+        <v>360</v>
       </c>
       <c r="C15">
-        <v>1300</v>
+        <f t="shared" si="0"/>
+        <v>882</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F15">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G15">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I15">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="J15">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="K15">
         <v>113</v>
@@ -961,31 +973,32 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1500</v>
+        <v>380</v>
       </c>
       <c r="C16">
-        <v>1400</v>
+        <f t="shared" si="0"/>
+        <v>1058</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F16">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="G16">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="H16">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="I16">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="J16">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="K16">
         <v>114</v>
@@ -996,31 +1009,32 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="C17">
-        <v>1500</v>
+        <f t="shared" si="0"/>
+        <v>1269</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F17">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="G17">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H17">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I17">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="J17">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="K17">
         <v>115</v>
@@ -1031,31 +1045,32 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1700</v>
+        <v>420</v>
       </c>
       <c r="C18">
-        <v>1600</v>
+        <f t="shared" si="0"/>
+        <v>1522</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F18">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="G18">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="H18">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I18">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J18">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="K18">
         <v>116</v>
@@ -1066,31 +1081,32 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1800</v>
+        <v>440</v>
       </c>
       <c r="C19">
-        <v>1700</v>
+        <f t="shared" si="0"/>
+        <v>1826</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F19">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="G19">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I19">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J19">
-        <v>117</v>
+        <v>185</v>
       </c>
       <c r="K19">
         <v>117</v>
@@ -1101,31 +1117,32 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1900</v>
+        <v>460</v>
       </c>
       <c r="C20">
-        <v>1800</v>
+        <f t="shared" si="0"/>
+        <v>2191</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="F20">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G20">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="H20">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="I20">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="J20">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="K20">
         <v>118</v>
@@ -1136,31 +1153,32 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2000</v>
+        <v>480</v>
       </c>
       <c r="C21">
-        <v>1900</v>
+        <f t="shared" si="0"/>
+        <v>2629</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F21">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G21">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="H21">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I21">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="J21">
-        <v>119</v>
+        <v>195</v>
       </c>
       <c r="K21">
         <v>119</v>
@@ -1171,31 +1189,32 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2100</v>
+        <v>500</v>
       </c>
       <c r="C22">
-        <v>2000</v>
+        <f t="shared" si="0"/>
+        <v>3154</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="F22">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G22">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="H22">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I22">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="J22">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K22">
         <v>120</v>
@@ -1206,31 +1225,32 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2200</v>
+        <v>520</v>
       </c>
       <c r="C23">
-        <v>2100</v>
+        <f t="shared" si="0"/>
+        <v>3784</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F23">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="G23">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="H23">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I23">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="J23">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="K23">
         <v>121</v>
@@ -1241,31 +1261,32 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2300</v>
+        <v>540</v>
       </c>
       <c r="C24">
-        <v>2200</v>
+        <f t="shared" si="0"/>
+        <v>4540</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="F24">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="G24">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="H24">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="I24">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="J24">
-        <v>122</v>
+        <v>210</v>
       </c>
       <c r="K24">
         <v>122</v>
@@ -1276,31 +1297,32 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2400</v>
+        <v>560</v>
       </c>
       <c r="C25">
-        <v>2300</v>
+        <f t="shared" si="0"/>
+        <v>5448</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="F25">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="G25">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="H25">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="I25">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="J25">
-        <v>123</v>
+        <v>215</v>
       </c>
       <c r="K25">
         <v>123</v>
@@ -1311,31 +1333,32 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2500</v>
+        <v>580</v>
       </c>
       <c r="C26">
-        <v>2400</v>
+        <f t="shared" si="0"/>
+        <v>6537</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="F26">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="G26">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="H26">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="I26">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="J26">
-        <v>124</v>
+        <v>220</v>
       </c>
       <c r="K26">
         <v>124</v>
@@ -1346,31 +1369,32 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>2600</v>
+        <v>600</v>
       </c>
       <c r="C27">
-        <v>2500</v>
+        <f t="shared" si="0"/>
+        <v>7844</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="F27">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="G27">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="H27">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="I27">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="J27">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="K27">
         <v>125</v>
@@ -1381,31 +1405,32 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2700</v>
+        <v>620</v>
       </c>
       <c r="C28">
-        <v>2600</v>
+        <f t="shared" si="0"/>
+        <v>9412</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="F28">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="G28">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="H28">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="I28">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="J28">
-        <v>126</v>
+        <v>230</v>
       </c>
       <c r="K28">
         <v>126</v>
@@ -1416,31 +1441,32 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>2800</v>
+        <v>640</v>
       </c>
       <c r="C29">
-        <v>2700</v>
+        <f t="shared" si="0"/>
+        <v>11294</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="F29">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="G29">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="H29">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="I29">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="J29">
-        <v>127</v>
+        <v>235</v>
       </c>
       <c r="K29">
         <v>127</v>
@@ -1451,31 +1477,32 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>2900</v>
+        <v>660</v>
       </c>
       <c r="C30">
-        <v>2800</v>
+        <f t="shared" si="0"/>
+        <v>13552</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="F30">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="G30">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="H30">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="I30">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="J30">
-        <v>128</v>
+        <v>240</v>
       </c>
       <c r="K30">
         <v>128</v>
@@ -1486,31 +1513,32 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>3000</v>
+        <v>680</v>
       </c>
       <c r="C31">
-        <v>2900</v>
+        <f t="shared" si="0"/>
+        <v>16262</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="F31">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="G31">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="H31">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="I31">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="J31">
-        <v>129</v>
+        <v>245</v>
       </c>
       <c r="K31">
         <v>129</v>
@@ -1521,31 +1549,32 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>3100</v>
+        <v>700</v>
       </c>
       <c r="C32">
-        <v>3000</v>
+        <f t="shared" si="0"/>
+        <v>19514</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="F32">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="G32">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="H32">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="I32">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="J32">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="K32">
         <v>130</v>
@@ -1556,31 +1585,32 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>3200</v>
+        <v>720</v>
       </c>
       <c r="C33">
-        <v>3100</v>
+        <f t="shared" si="0"/>
+        <v>23416</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F33">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="G33">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="H33">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="I33">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="J33">
-        <v>131</v>
+        <v>255</v>
       </c>
       <c r="K33">
         <v>131</v>
@@ -1591,31 +1621,32 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>3300</v>
+        <v>740</v>
       </c>
       <c r="C34">
-        <v>3200</v>
+        <f t="shared" si="0"/>
+        <v>28099</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="F34">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="G34">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="H34">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="I34">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="J34">
-        <v>132</v>
+        <v>260</v>
       </c>
       <c r="K34">
         <v>132</v>
@@ -1626,31 +1657,32 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>3400</v>
+        <v>760</v>
       </c>
       <c r="C35">
-        <v>3300</v>
+        <f t="shared" si="0"/>
+        <v>33718</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="F35">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="G35">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="H35">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="I35">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="J35">
-        <v>133</v>
+        <v>265</v>
       </c>
       <c r="K35">
         <v>133</v>
@@ -1661,31 +1693,32 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>3500</v>
+        <v>780</v>
       </c>
       <c r="C36">
-        <v>3400</v>
+        <f t="shared" si="0"/>
+        <v>40461</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="F36">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="G36">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="H36">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="I36">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="J36">
-        <v>134</v>
+        <v>270</v>
       </c>
       <c r="K36">
         <v>134</v>
@@ -1696,31 +1729,32 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>3600</v>
+        <v>800</v>
       </c>
       <c r="C37">
-        <v>3500</v>
+        <f t="shared" si="0"/>
+        <v>48553</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="F37">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="G37">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="H37">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="I37">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="J37">
-        <v>135</v>
+        <v>275</v>
       </c>
       <c r="K37">
         <v>135</v>
@@ -1731,31 +1765,32 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>3700</v>
+        <v>820</v>
       </c>
       <c r="C38">
-        <v>3600</v>
+        <f t="shared" si="0"/>
+        <v>58263</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="F38">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="G38">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="H38">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="I38">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="J38">
-        <v>136</v>
+        <v>280</v>
       </c>
       <c r="K38">
         <v>136</v>
@@ -1766,31 +1801,32 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>3800</v>
+        <v>840</v>
       </c>
       <c r="C39">
-        <v>3700</v>
+        <f t="shared" si="0"/>
+        <v>69915</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="F39">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="G39">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="H39">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="I39">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="J39">
-        <v>137</v>
+        <v>285</v>
       </c>
       <c r="K39">
         <v>137</v>
@@ -1801,31 +1837,32 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>3900</v>
+        <v>860</v>
       </c>
       <c r="C40">
-        <v>3800</v>
+        <f t="shared" si="0"/>
+        <v>83898</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="F40">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="G40">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="H40">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="I40">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="J40">
-        <v>138</v>
+        <v>290</v>
       </c>
       <c r="K40">
         <v>138</v>
@@ -1836,31 +1873,32 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>4000</v>
+        <v>880</v>
       </c>
       <c r="C41">
-        <v>3900</v>
+        <f t="shared" si="0"/>
+        <v>100677</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="F41">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="G41">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="H41">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="I41">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="J41">
-        <v>139</v>
+        <v>295</v>
       </c>
       <c r="K41">
         <v>139</v>
@@ -1871,31 +1909,32 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>4100</v>
+        <v>900</v>
       </c>
       <c r="C42">
-        <v>4000</v>
+        <f t="shared" si="0"/>
+        <v>120812</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="F42">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="G42">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="H42">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="I42">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="J42">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="K42">
         <v>140</v>
@@ -1906,31 +1945,32 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>4200</v>
+        <v>920</v>
       </c>
       <c r="C43">
-        <v>4100</v>
+        <f t="shared" si="0"/>
+        <v>144974</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="F43">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="G43">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="H43">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="I43">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="J43">
-        <v>141</v>
+        <v>305</v>
       </c>
       <c r="K43">
         <v>141</v>
@@ -1941,31 +1981,32 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>4300</v>
+        <v>940</v>
       </c>
       <c r="C44">
-        <v>4200</v>
+        <f t="shared" si="0"/>
+        <v>173968</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="F44">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="G44">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="H44">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="I44">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="J44">
-        <v>142</v>
+        <v>310</v>
       </c>
       <c r="K44">
         <v>142</v>
@@ -1976,31 +2017,32 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>4400</v>
+        <v>960</v>
       </c>
       <c r="C45">
-        <v>4300</v>
+        <f t="shared" si="0"/>
+        <v>208761</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="F45">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="G45">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="H45">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="I45">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="J45">
-        <v>143</v>
+        <v>315</v>
       </c>
       <c r="K45">
         <v>143</v>
@@ -2011,31 +2053,32 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>4500</v>
+        <v>980</v>
       </c>
       <c r="C46">
-        <v>4400</v>
+        <f t="shared" si="0"/>
+        <v>250513</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="F46">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="G46">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="H46">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="I46">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="J46">
-        <v>144</v>
+        <v>320</v>
       </c>
       <c r="K46">
         <v>144</v>
@@ -2046,31 +2089,32 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>4600</v>
+        <v>1000</v>
       </c>
       <c r="C47">
-        <v>4500</v>
+        <f t="shared" si="0"/>
+        <v>300615</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="F47">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="G47">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="H47">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="I47">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="J47">
-        <v>145</v>
+        <v>325</v>
       </c>
       <c r="K47">
         <v>145</v>
@@ -2081,31 +2125,32 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>4700</v>
+        <v>1020</v>
       </c>
       <c r="C48">
-        <v>4600</v>
+        <f t="shared" si="0"/>
+        <v>360738</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="F48">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="G48">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="H48">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="I48">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="J48">
-        <v>146</v>
+        <v>330</v>
       </c>
       <c r="K48">
         <v>146</v>
@@ -2116,31 +2161,32 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>4800</v>
+        <v>1040</v>
       </c>
       <c r="C49">
-        <v>4700</v>
+        <f t="shared" si="0"/>
+        <v>432885</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="F49">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="G49">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="H49">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="I49">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="J49">
-        <v>147</v>
+        <v>335</v>
       </c>
       <c r="K49">
         <v>147</v>
@@ -2151,31 +2197,32 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>4900</v>
+        <v>1060</v>
       </c>
       <c r="C50">
-        <v>4800</v>
+        <f t="shared" si="0"/>
+        <v>519462</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="F50">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="G50">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="H50">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="I50">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="J50">
-        <v>148</v>
+        <v>340</v>
       </c>
       <c r="K50">
         <v>148</v>
@@ -2186,31 +2233,32 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>5000</v>
+        <v>1080</v>
       </c>
       <c r="C51">
-        <v>4900</v>
+        <f t="shared" si="0"/>
+        <v>623354</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="F51">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="G51">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="H51">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="I51">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="J51">
-        <v>149</v>
+        <v>345</v>
       </c>
       <c r="K51">
         <v>149</v>
@@ -2221,31 +2269,32 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>5100</v>
+        <v>1100</v>
       </c>
       <c r="C52">
-        <v>5000</v>
+        <f t="shared" si="0"/>
+        <v>748024</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="F52">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="G52">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="H52">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="I52">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="J52">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="K52">
         <v>150</v>
@@ -2256,31 +2305,32 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>5200</v>
+        <v>1120</v>
       </c>
       <c r="C53">
-        <v>5100</v>
+        <f t="shared" si="0"/>
+        <v>897628</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="F53">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="G53">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="H53">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="I53">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="J53">
-        <v>151</v>
+        <v>355</v>
       </c>
       <c r="K53">
         <v>151</v>
@@ -2291,31 +2341,32 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>5300</v>
+        <v>1140</v>
       </c>
       <c r="C54">
-        <v>5200</v>
+        <f t="shared" si="0"/>
+        <v>1077153</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="F54">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="G54">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="H54">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="I54">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="J54">
-        <v>152</v>
+        <v>360</v>
       </c>
       <c r="K54">
         <v>152</v>
@@ -2326,31 +2377,32 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>5400</v>
+        <v>1160</v>
       </c>
       <c r="C55">
-        <v>5300</v>
+        <f t="shared" si="0"/>
+        <v>1292583</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="F55">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="G55">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="H55">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="I55">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="J55">
-        <v>153</v>
+        <v>365</v>
       </c>
       <c r="K55">
         <v>153</v>
@@ -2361,31 +2413,32 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>5500</v>
+        <v>1180</v>
       </c>
       <c r="C56">
-        <v>5400</v>
+        <f t="shared" si="0"/>
+        <v>1551099</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="F56">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="G56">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="H56">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="I56">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="J56">
-        <v>154</v>
+        <v>370</v>
       </c>
       <c r="K56">
         <v>154</v>
@@ -2396,31 +2449,32 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>5600</v>
+        <v>1200</v>
       </c>
       <c r="C57">
-        <v>5500</v>
+        <f t="shared" si="0"/>
+        <v>1861318</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="F57">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="G57">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="H57">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="I57">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="J57">
-        <v>155</v>
+        <v>375</v>
       </c>
       <c r="K57">
         <v>155</v>
@@ -2431,31 +2485,32 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>5700</v>
+        <v>1220</v>
       </c>
       <c r="C58">
-        <v>5600</v>
+        <f t="shared" si="0"/>
+        <v>2233581</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="F58">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="G58">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="H58">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="I58">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="J58">
-        <v>156</v>
+        <v>380</v>
       </c>
       <c r="K58">
         <v>156</v>
@@ -2466,31 +2521,32 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>5800</v>
+        <v>1240</v>
       </c>
       <c r="C59">
-        <v>5700</v>
+        <f t="shared" si="0"/>
+        <v>2680297</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="F59">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="G59">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="H59">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="I59">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="J59">
-        <v>157</v>
+        <v>385</v>
       </c>
       <c r="K59">
         <v>157</v>
@@ -2501,31 +2557,32 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>5900</v>
+        <v>1260</v>
       </c>
       <c r="C60">
-        <v>5800</v>
+        <f t="shared" si="0"/>
+        <v>3216356</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="F60">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="G60">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="H60">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="I60">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="J60">
-        <v>158</v>
+        <v>390</v>
       </c>
       <c r="K60">
         <v>158</v>
@@ -2536,31 +2593,32 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>6000</v>
+        <v>1280</v>
       </c>
       <c r="C61">
-        <v>5900</v>
+        <f t="shared" si="0"/>
+        <v>3859627</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="F61">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="G61">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="H61">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="I61">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="J61">
-        <v>159</v>
+        <v>395</v>
       </c>
       <c r="K61">
         <v>159</v>
@@ -2571,31 +2629,32 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>6100</v>
+        <v>1300</v>
       </c>
       <c r="C62">
-        <v>6000</v>
+        <f t="shared" si="0"/>
+        <v>4631552</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="F62">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="G62">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="H62">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="I62">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="J62">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="K62">
         <v>160</v>
@@ -2606,31 +2665,32 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>6200</v>
+        <v>1320</v>
       </c>
       <c r="C63">
-        <v>6100</v>
+        <f t="shared" si="0"/>
+        <v>5557862</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="F63">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="G63">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="H63">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="I63">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="J63">
-        <v>161</v>
+        <v>405</v>
       </c>
       <c r="K63">
         <v>161</v>
@@ -2641,31 +2701,32 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>6300</v>
+        <v>1340</v>
       </c>
       <c r="C64">
-        <v>6200</v>
+        <f t="shared" si="0"/>
+        <v>6669434</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="F64">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="G64">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="H64">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="I64">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="J64">
-        <v>162</v>
+        <v>410</v>
       </c>
       <c r="K64">
         <v>162</v>
@@ -2676,31 +2737,32 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>6400</v>
+        <v>1360</v>
       </c>
       <c r="C65">
-        <v>6300</v>
+        <f t="shared" si="0"/>
+        <v>8003320</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="F65">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="G65">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="H65">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="I65">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="J65">
-        <v>163</v>
+        <v>415</v>
       </c>
       <c r="K65">
         <v>163</v>
@@ -2711,31 +2773,32 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>6500</v>
+        <v>1380</v>
       </c>
       <c r="C66">
-        <v>6400</v>
+        <f t="shared" si="0"/>
+        <v>9603984</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="F66">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="G66">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="H66">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="I66">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="J66">
-        <v>164</v>
+        <v>420</v>
       </c>
       <c r="K66">
         <v>164</v>
@@ -2746,31 +2809,32 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>6600</v>
+        <v>1400</v>
       </c>
       <c r="C67">
-        <v>6500</v>
+        <f t="shared" si="0"/>
+        <v>11524780</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="F67">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="G67">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="H67">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="I67">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="J67">
-        <v>165</v>
+        <v>425</v>
       </c>
       <c r="K67">
         <v>165</v>
@@ -2781,31 +2845,32 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>6700</v>
+        <v>1420</v>
       </c>
       <c r="C68">
-        <v>6600</v>
+        <f t="shared" si="0"/>
+        <v>13829736</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="F68">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="G68">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="H68">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="I68">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="J68">
-        <v>166</v>
+        <v>430</v>
       </c>
       <c r="K68">
         <v>166</v>
@@ -2816,31 +2881,32 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>6800</v>
+        <v>1440</v>
       </c>
       <c r="C69">
-        <v>6700</v>
+        <f t="shared" ref="C69:C109" si="1">FLOOR(C68*1.2,1)</f>
+        <v>16595683</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="F69">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="G69">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="H69">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="I69">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="J69">
-        <v>167</v>
+        <v>435</v>
       </c>
       <c r="K69">
         <v>167</v>
@@ -2851,31 +2917,32 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>6900</v>
+        <v>1460</v>
       </c>
       <c r="C70">
-        <v>6800</v>
+        <f t="shared" si="1"/>
+        <v>19914819</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="F70">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="G70">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="H70">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="I70">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="J70">
-        <v>168</v>
+        <v>440</v>
       </c>
       <c r="K70">
         <v>168</v>
@@ -2886,31 +2953,32 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>7000</v>
+        <v>1480</v>
       </c>
       <c r="C71">
-        <v>6900</v>
+        <f t="shared" si="1"/>
+        <v>23897782</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="F71">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="G71">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="H71">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="I71">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="J71">
-        <v>169</v>
+        <v>445</v>
       </c>
       <c r="K71">
         <v>169</v>
@@ -2921,31 +2989,32 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>7100</v>
+        <v>1500</v>
       </c>
       <c r="C72">
-        <v>7000</v>
+        <f t="shared" si="1"/>
+        <v>28677338</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="F72">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="G72">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="H72">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="I72">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="J72">
-        <v>170</v>
+        <v>450</v>
       </c>
       <c r="K72">
         <v>170</v>
@@ -2956,31 +3025,32 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>7200</v>
+        <v>1520</v>
       </c>
       <c r="C73">
-        <v>7100</v>
+        <f t="shared" si="1"/>
+        <v>34412805</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="F73">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="G73">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="H73">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="I73">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="J73">
-        <v>171</v>
+        <v>455</v>
       </c>
       <c r="K73">
         <v>171</v>
@@ -2991,31 +3061,32 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>7300</v>
+        <v>1540</v>
       </c>
       <c r="C74">
-        <v>7200</v>
+        <f t="shared" si="1"/>
+        <v>41295366</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="F74">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="G74">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="H74">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="I74">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="J74">
-        <v>172</v>
+        <v>460</v>
       </c>
       <c r="K74">
         <v>172</v>
@@ -3026,31 +3097,32 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>7400</v>
+        <v>1560</v>
       </c>
       <c r="C75">
-        <v>7300</v>
+        <f t="shared" si="1"/>
+        <v>49554439</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="F75">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="G75">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="H75">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="I75">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="J75">
-        <v>173</v>
+        <v>465</v>
       </c>
       <c r="K75">
         <v>173</v>
@@ -3061,31 +3133,32 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>7500</v>
+        <v>1580</v>
       </c>
       <c r="C76">
-        <v>7400</v>
+        <f t="shared" si="1"/>
+        <v>59465326</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="F76">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="G76">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="H76">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="I76">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="J76">
-        <v>174</v>
+        <v>470</v>
       </c>
       <c r="K76">
         <v>174</v>
@@ -3096,31 +3169,32 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>7600</v>
+        <v>1600</v>
       </c>
       <c r="C77">
-        <v>7500</v>
+        <f t="shared" si="1"/>
+        <v>71358391</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="F77">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="G77">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="H77">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="I77">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="J77">
-        <v>175</v>
+        <v>475</v>
       </c>
       <c r="K77">
         <v>175</v>
@@ -3131,31 +3205,32 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>7700</v>
+        <v>1620</v>
       </c>
       <c r="C78">
-        <v>7600</v>
+        <f t="shared" si="1"/>
+        <v>85630069</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="F78">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="G78">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="H78">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="I78">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="J78">
-        <v>176</v>
+        <v>480</v>
       </c>
       <c r="K78">
         <v>176</v>
@@ -3166,31 +3241,32 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>7800</v>
+        <v>1640</v>
       </c>
       <c r="C79">
-        <v>7700</v>
+        <f t="shared" si="1"/>
+        <v>102756082</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="F79">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="G79">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="H79">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="I79">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="J79">
-        <v>177</v>
+        <v>485</v>
       </c>
       <c r="K79">
         <v>177</v>
@@ -3201,31 +3277,32 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>7900</v>
+        <v>1660</v>
       </c>
       <c r="C80">
-        <v>7800</v>
+        <f t="shared" si="1"/>
+        <v>123307298</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="F80">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="G80">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="H80">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="I80">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="J80">
-        <v>178</v>
+        <v>490</v>
       </c>
       <c r="K80">
         <v>178</v>
@@ -3236,31 +3313,32 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>8000</v>
+        <v>1680</v>
       </c>
       <c r="C81">
-        <v>7900</v>
+        <f t="shared" si="1"/>
+        <v>147968757</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="F81">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="G81">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="H81">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="I81">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="J81">
-        <v>179</v>
+        <v>495</v>
       </c>
       <c r="K81">
         <v>179</v>
@@ -3271,31 +3349,32 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>8100</v>
+        <v>1700</v>
       </c>
       <c r="C82">
-        <v>8000</v>
+        <f t="shared" si="1"/>
+        <v>177562508</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="F82">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="G82">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="H82">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="I82">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="J82">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="K82">
         <v>180</v>
@@ -3306,31 +3385,32 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>8200</v>
+        <v>1720</v>
       </c>
       <c r="C83">
-        <v>8100</v>
+        <f t="shared" si="1"/>
+        <v>213075009</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="F83">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="G83">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="H83">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="I83">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="J83">
-        <v>181</v>
+        <v>505</v>
       </c>
       <c r="K83">
         <v>181</v>
@@ -3341,31 +3421,32 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>8300</v>
+        <v>1740</v>
       </c>
       <c r="C84">
-        <v>8200</v>
+        <f t="shared" si="1"/>
+        <v>255690010</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="F84">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="G84">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="H84">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="I84">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="J84">
-        <v>182</v>
+        <v>510</v>
       </c>
       <c r="K84">
         <v>182</v>
@@ -3376,31 +3457,32 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>8400</v>
+        <v>1760</v>
       </c>
       <c r="C85">
-        <v>8300</v>
+        <f t="shared" si="1"/>
+        <v>306828012</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>84</v>
+        <v>176</v>
       </c>
       <c r="F85">
-        <v>84</v>
+        <v>176</v>
       </c>
       <c r="G85">
-        <v>84</v>
+        <v>176</v>
       </c>
       <c r="H85">
-        <v>84</v>
+        <v>176</v>
       </c>
       <c r="I85">
-        <v>84</v>
+        <v>176</v>
       </c>
       <c r="J85">
-        <v>183</v>
+        <v>515</v>
       </c>
       <c r="K85">
         <v>183</v>
@@ -3411,31 +3493,32 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>8500</v>
+        <v>1780</v>
       </c>
       <c r="C86">
-        <v>8400</v>
+        <f t="shared" si="1"/>
+        <v>368193614</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="F86">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="G86">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="H86">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="I86">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="J86">
-        <v>184</v>
+        <v>520</v>
       </c>
       <c r="K86">
         <v>184</v>
@@ -3446,31 +3529,32 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>8600</v>
+        <v>1800</v>
       </c>
       <c r="C87">
-        <v>8500</v>
+        <f t="shared" si="1"/>
+        <v>441832336</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="F87">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="G87">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="H87">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="I87">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="J87">
-        <v>185</v>
+        <v>525</v>
       </c>
       <c r="K87">
         <v>185</v>
@@ -3481,31 +3565,32 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>8700</v>
+        <v>1820</v>
       </c>
       <c r="C88">
-        <v>8600</v>
+        <f t="shared" si="1"/>
+        <v>530198803</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>87</v>
+        <v>182</v>
       </c>
       <c r="F88">
-        <v>87</v>
+        <v>182</v>
       </c>
       <c r="G88">
-        <v>87</v>
+        <v>182</v>
       </c>
       <c r="H88">
-        <v>87</v>
+        <v>182</v>
       </c>
       <c r="I88">
-        <v>87</v>
+        <v>182</v>
       </c>
       <c r="J88">
-        <v>186</v>
+        <v>530</v>
       </c>
       <c r="K88">
         <v>186</v>
@@ -3516,31 +3601,32 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>8800</v>
+        <v>1840</v>
       </c>
       <c r="C89">
-        <v>8700</v>
+        <f t="shared" si="1"/>
+        <v>636238563</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="F89">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="G89">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="H89">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="I89">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="J89">
-        <v>187</v>
+        <v>535</v>
       </c>
       <c r="K89">
         <v>187</v>
@@ -3551,31 +3637,32 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>8900</v>
+        <v>1860</v>
       </c>
       <c r="C90">
-        <v>8800</v>
+        <f t="shared" si="1"/>
+        <v>763486275</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="F90">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="G90">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="H90">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="I90">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="J90">
-        <v>188</v>
+        <v>540</v>
       </c>
       <c r="K90">
         <v>188</v>
@@ -3586,31 +3673,32 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>9000</v>
+        <v>1880</v>
       </c>
       <c r="C91">
-        <v>8900</v>
+        <f t="shared" si="1"/>
+        <v>916183530</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="F91">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="G91">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="H91">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="I91">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="J91">
-        <v>189</v>
+        <v>545</v>
       </c>
       <c r="K91">
         <v>189</v>
@@ -3621,31 +3709,32 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>9100</v>
+        <v>1900</v>
       </c>
       <c r="C92">
-        <v>9000</v>
+        <f t="shared" si="1"/>
+        <v>1099420236</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="F92">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="G92">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="H92">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="I92">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="J92">
-        <v>190</v>
+        <v>550</v>
       </c>
       <c r="K92">
         <v>190</v>
@@ -3656,31 +3745,32 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>9200</v>
+        <v>1920</v>
       </c>
       <c r="C93">
-        <v>9100</v>
+        <f t="shared" si="1"/>
+        <v>1319304283</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="F93">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="G93">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="H93">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="I93">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="J93">
-        <v>191</v>
+        <v>555</v>
       </c>
       <c r="K93">
         <v>191</v>
@@ -3691,31 +3781,32 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>9300</v>
+        <v>1940</v>
       </c>
       <c r="C94">
-        <v>9200</v>
+        <f t="shared" si="1"/>
+        <v>1583165139</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="F94">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="G94">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="H94">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="I94">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="J94">
-        <v>192</v>
+        <v>560</v>
       </c>
       <c r="K94">
         <v>192</v>
@@ -3726,31 +3817,32 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>9400</v>
+        <v>1960</v>
       </c>
       <c r="C95">
-        <v>9300</v>
+        <f t="shared" si="1"/>
+        <v>1899798166</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>94</v>
+        <v>196</v>
       </c>
       <c r="F95">
-        <v>94</v>
+        <v>196</v>
       </c>
       <c r="G95">
-        <v>94</v>
+        <v>196</v>
       </c>
       <c r="H95">
-        <v>94</v>
+        <v>196</v>
       </c>
       <c r="I95">
-        <v>94</v>
+        <v>196</v>
       </c>
       <c r="J95">
-        <v>193</v>
+        <v>565</v>
       </c>
       <c r="K95">
         <v>193</v>
@@ -3761,31 +3853,32 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>9500</v>
+        <v>1980</v>
       </c>
       <c r="C96">
-        <v>9400</v>
+        <f t="shared" si="1"/>
+        <v>2279757799</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>95</v>
+        <v>198</v>
       </c>
       <c r="F96">
-        <v>95</v>
+        <v>198</v>
       </c>
       <c r="G96">
-        <v>95</v>
+        <v>198</v>
       </c>
       <c r="H96">
-        <v>95</v>
+        <v>198</v>
       </c>
       <c r="I96">
-        <v>95</v>
+        <v>198</v>
       </c>
       <c r="J96">
-        <v>194</v>
+        <v>570</v>
       </c>
       <c r="K96">
         <v>194</v>
@@ -3796,31 +3889,32 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>9600</v>
+        <v>2000</v>
       </c>
       <c r="C97">
-        <v>9500</v>
+        <f t="shared" si="1"/>
+        <v>2735709358</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="F97">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="G97">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="H97">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="I97">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="J97">
-        <v>195</v>
+        <v>575</v>
       </c>
       <c r="K97">
         <v>195</v>
@@ -3831,31 +3925,32 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>9700</v>
+        <v>2020</v>
       </c>
       <c r="C98">
-        <v>9600</v>
+        <f t="shared" si="1"/>
+        <v>3282851229</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>97</v>
+        <v>202</v>
       </c>
       <c r="F98">
-        <v>97</v>
+        <v>202</v>
       </c>
       <c r="G98">
-        <v>97</v>
+        <v>202</v>
       </c>
       <c r="H98">
-        <v>97</v>
+        <v>202</v>
       </c>
       <c r="I98">
-        <v>97</v>
+        <v>202</v>
       </c>
       <c r="J98">
-        <v>196</v>
+        <v>580</v>
       </c>
       <c r="K98">
         <v>196</v>
@@ -3866,31 +3961,32 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>9800</v>
+        <v>2040</v>
       </c>
       <c r="C99">
-        <v>9700</v>
+        <f t="shared" si="1"/>
+        <v>3939421474</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>98</v>
+        <v>204</v>
       </c>
       <c r="F99">
-        <v>98</v>
+        <v>204</v>
       </c>
       <c r="G99">
-        <v>98</v>
+        <v>204</v>
       </c>
       <c r="H99">
-        <v>98</v>
+        <v>204</v>
       </c>
       <c r="I99">
-        <v>98</v>
+        <v>204</v>
       </c>
       <c r="J99">
-        <v>197</v>
+        <v>585</v>
       </c>
       <c r="K99">
         <v>197</v>
@@ -3901,31 +3997,32 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>9900</v>
+        <v>2060</v>
       </c>
       <c r="C100">
-        <v>9800</v>
+        <f t="shared" si="1"/>
+        <v>4727305768</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>99</v>
+        <v>206</v>
       </c>
       <c r="F100">
-        <v>99</v>
+        <v>206</v>
       </c>
       <c r="G100">
-        <v>99</v>
+        <v>206</v>
       </c>
       <c r="H100">
-        <v>99</v>
+        <v>206</v>
       </c>
       <c r="I100">
-        <v>99</v>
+        <v>206</v>
       </c>
       <c r="J100">
-        <v>198</v>
+        <v>590</v>
       </c>
       <c r="K100">
         <v>198</v>
@@ -3936,31 +4033,32 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>10000</v>
+        <v>2080</v>
       </c>
       <c r="C101">
-        <v>9900</v>
+        <f t="shared" si="1"/>
+        <v>5672766921</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="F101">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="G101">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="H101">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="I101">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="J101">
-        <v>199</v>
+        <v>595</v>
       </c>
       <c r="K101">
         <v>199</v>
@@ -3971,31 +4069,32 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>10100</v>
+        <v>2100</v>
       </c>
       <c r="C102">
-        <v>10000</v>
+        <f t="shared" si="1"/>
+        <v>6807320305</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>101</v>
+        <v>210</v>
       </c>
       <c r="F102">
-        <v>101</v>
+        <v>210</v>
       </c>
       <c r="G102">
-        <v>101</v>
+        <v>210</v>
       </c>
       <c r="H102">
-        <v>101</v>
+        <v>210</v>
       </c>
       <c r="I102">
-        <v>101</v>
+        <v>210</v>
       </c>
       <c r="J102">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K102">
         <v>200</v>
@@ -4006,31 +4105,32 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>10200</v>
+        <v>2120</v>
       </c>
       <c r="C103">
-        <v>10100</v>
+        <f t="shared" si="1"/>
+        <v>8168784366</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>102</v>
+        <v>212</v>
       </c>
       <c r="F103">
-        <v>102</v>
+        <v>212</v>
       </c>
       <c r="G103">
-        <v>102</v>
+        <v>212</v>
       </c>
       <c r="H103">
-        <v>102</v>
+        <v>212</v>
       </c>
       <c r="I103">
-        <v>102</v>
+        <v>212</v>
       </c>
       <c r="J103">
-        <v>201</v>
+        <v>605</v>
       </c>
       <c r="K103">
         <v>201</v>
@@ -4041,31 +4141,32 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>10300</v>
+        <v>2140</v>
       </c>
       <c r="C104">
-        <v>10200</v>
+        <f t="shared" si="1"/>
+        <v>9802541239</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>103</v>
+        <v>214</v>
       </c>
       <c r="F104">
-        <v>103</v>
+        <v>214</v>
       </c>
       <c r="G104">
-        <v>103</v>
+        <v>214</v>
       </c>
       <c r="H104">
-        <v>103</v>
+        <v>214</v>
       </c>
       <c r="I104">
-        <v>103</v>
+        <v>214</v>
       </c>
       <c r="J104">
-        <v>202</v>
+        <v>610</v>
       </c>
       <c r="K104">
         <v>202</v>
@@ -4076,31 +4177,32 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>10400</v>
+        <v>2160</v>
       </c>
       <c r="C105">
-        <v>10300</v>
+        <f t="shared" si="1"/>
+        <v>11763049486</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>104</v>
+        <v>216</v>
       </c>
       <c r="F105">
-        <v>104</v>
+        <v>216</v>
       </c>
       <c r="G105">
-        <v>104</v>
+        <v>216</v>
       </c>
       <c r="H105">
-        <v>104</v>
+        <v>216</v>
       </c>
       <c r="I105">
-        <v>104</v>
+        <v>216</v>
       </c>
       <c r="J105">
-        <v>203</v>
+        <v>615</v>
       </c>
       <c r="K105">
         <v>203</v>
@@ -4111,31 +4213,32 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>10500</v>
+        <v>2180</v>
       </c>
       <c r="C106">
-        <v>10400</v>
+        <f t="shared" si="1"/>
+        <v>14115659383</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="F106">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="G106">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="H106">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="I106">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="J106">
-        <v>204</v>
+        <v>620</v>
       </c>
       <c r="K106">
         <v>204</v>
@@ -4146,31 +4249,32 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>10600</v>
+        <v>2200</v>
       </c>
       <c r="C107">
-        <v>10500</v>
+        <f t="shared" si="1"/>
+        <v>16938791259</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="F107">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="G107">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="H107">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="I107">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="J107">
-        <v>205</v>
+        <v>625</v>
       </c>
       <c r="K107">
         <v>205</v>
@@ -4181,31 +4285,32 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>10700</v>
+        <v>2220</v>
       </c>
       <c r="C108">
-        <v>10600</v>
+        <f t="shared" si="1"/>
+        <v>20326549510</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="F108">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="G108">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="H108">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="I108">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="J108">
-        <v>206</v>
+        <v>630</v>
       </c>
       <c r="K108">
         <v>206</v>
@@ -4216,31 +4321,32 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>10800</v>
+        <v>2240</v>
       </c>
       <c r="C109">
-        <v>10700</v>
+        <f t="shared" si="1"/>
+        <v>24391859412</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>108</v>
+        <v>224</v>
       </c>
       <c r="F109">
-        <v>108</v>
+        <v>224</v>
       </c>
       <c r="G109">
-        <v>108</v>
+        <v>224</v>
       </c>
       <c r="H109">
-        <v>108</v>
+        <v>224</v>
       </c>
       <c r="I109">
-        <v>108</v>
+        <v>224</v>
       </c>
       <c r="J109">
-        <v>207</v>
+        <v>635</v>
       </c>
       <c r="K109">
         <v>207</v>

--- a/doc/table/人物等级表.xlsx
+++ b/doc/table/人物等级表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="1395" yWindow="930" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -24,10 +24,6 @@
   <si>
     <t>最大血量</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级所需经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>升级特效</t>
@@ -59,6 +55,10 @@
   </si>
   <si>
     <t>真气增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级所需经验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,12 +127,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -174,7 +177,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,7 +212,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -421,7 +424,7 @@
   <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -439,31 +442,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -474,7 +477,7 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>

--- a/doc/table/人物等级表.xlsx
+++ b/doc/table/人物等级表.xlsx
@@ -535,7 +535,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
+      <selection pane="bottomLeft" activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -637,7 +637,9 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
+      <c r="R2" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="3" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -675,7 +677,9 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
+      <c r="R3" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -714,7 +718,9 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="R4" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -753,7 +759,9 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="R5" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -792,7 +800,9 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="R6" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -831,7 +841,9 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
+      <c r="R7" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -870,7 +882,9 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="R8" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -909,7 +923,9 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
+      <c r="R9" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -948,7 +964,9 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
+      <c r="R10" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="11" spans="1:18" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
@@ -997,8 +1015,8 @@
       </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="3">
-        <v>2</v>
+      <c r="R11" s="2">
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
@@ -1038,7 +1056,9 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
+      <c r="R12" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
@@ -1077,7 +1097,9 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
+      <c r="R13" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
@@ -1116,7 +1138,9 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
+      <c r="R14" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="15" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
@@ -1155,7 +1179,9 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
+      <c r="R15" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
@@ -1194,7 +1220,9 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
+      <c r="R16" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="17" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
@@ -1233,7 +1261,9 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
+      <c r="R17" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="18" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
@@ -1272,7 +1302,9 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
+      <c r="R18" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="19" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
@@ -1311,7 +1343,9 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
+      <c r="R19" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="20" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
@@ -1350,7 +1384,9 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
+      <c r="R20" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="21" spans="1:18" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
@@ -1403,8 +1439,8 @@
       <c r="Q21" s="3">
         <v>5</v>
       </c>
-      <c r="R21" s="3">
-        <v>4</v>
+      <c r="R21" s="2">
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
@@ -1444,7 +1480,9 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
+      <c r="R22" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="23" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
@@ -1483,7 +1521,9 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
+      <c r="R23" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="24" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
@@ -1522,7 +1562,9 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
+      <c r="R24" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="25" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
@@ -1561,7 +1603,9 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
+      <c r="R25" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="26" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
@@ -1600,7 +1644,9 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
+      <c r="R26" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="27" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
@@ -1639,7 +1685,9 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
+      <c r="R27" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="28" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
@@ -1678,7 +1726,9 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
+      <c r="R28" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="29" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
@@ -1717,7 +1767,9 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
+      <c r="R29" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="30" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
@@ -1756,7 +1808,9 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
+      <c r="R30" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="31" spans="1:18" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
@@ -1805,8 +1859,8 @@
       </c>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
-      <c r="R31" s="3">
-        <v>6</v>
+      <c r="R31" s="2">
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
@@ -1846,7 +1900,9 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
+      <c r="R32" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="33" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
@@ -1885,7 +1941,9 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
+      <c r="R33" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="34" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
@@ -1924,7 +1982,9 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
+      <c r="R34" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="35" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
@@ -1963,7 +2023,9 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
+      <c r="R35" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="36" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
@@ -2002,7 +2064,9 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
+      <c r="R36" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="37" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
@@ -2041,7 +2105,9 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
+      <c r="R37" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="38" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
@@ -2080,7 +2146,9 @@
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
+      <c r="R38" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="39" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
@@ -2119,7 +2187,9 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
+      <c r="R39" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="40" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
@@ -2158,7 +2228,9 @@
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
+      <c r="R40" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="41" spans="1:18" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
@@ -2211,8 +2283,8 @@
       <c r="Q41" s="3">
         <v>8</v>
       </c>
-      <c r="R41" s="3">
-        <v>8</v>
+      <c r="R41" s="2">
+        <v>500</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
@@ -2252,7 +2324,9 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
+      <c r="R42" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="43" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
@@ -2291,7 +2365,9 @@
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
+      <c r="R43" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="44" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
@@ -2330,7 +2406,9 @@
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
+      <c r="R44" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="45" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
@@ -2369,7 +2447,9 @@
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
+      <c r="R45" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="46" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
@@ -2408,7 +2488,9 @@
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
+      <c r="R46" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="47" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
@@ -2447,7 +2529,9 @@
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
+      <c r="R47" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="48" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
@@ -2486,7 +2570,9 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
+      <c r="R48" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="49" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
@@ -2525,7 +2611,9 @@
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
+      <c r="R49" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="50" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
@@ -2564,7 +2652,9 @@
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
+      <c r="R50" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="51" spans="1:18" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
@@ -2613,7 +2703,9 @@
       </c>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
+      <c r="R51" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="52" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
@@ -2652,7 +2744,9 @@
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
+      <c r="R52" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="53" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
@@ -2691,7 +2785,9 @@
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
+      <c r="R53" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="54" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
@@ -2730,7 +2826,9 @@
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
+      <c r="R54" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="55" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
@@ -2769,7 +2867,9 @@
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
+      <c r="R55" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="56" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
@@ -2808,7 +2908,9 @@
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
+      <c r="R56" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="57" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
@@ -2847,7 +2949,9 @@
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
+      <c r="R57" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="58" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
@@ -2886,7 +2990,9 @@
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
+      <c r="R58" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="59" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
@@ -2925,7 +3031,9 @@
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
+      <c r="R59" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="60" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
@@ -2964,7 +3072,9 @@
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
+      <c r="R60" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="61" spans="1:18" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
@@ -3017,7 +3127,9 @@
       <c r="Q61" s="3">
         <v>8</v>
       </c>
-      <c r="R61" s="3"/>
+      <c r="R61" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="62" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
@@ -3056,7 +3168,9 @@
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
-      <c r="R62" s="2"/>
+      <c r="R62" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="63" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
@@ -3095,7 +3209,9 @@
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
-      <c r="R63" s="2"/>
+      <c r="R63" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="64" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
@@ -3134,7 +3250,9 @@
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
-      <c r="R64" s="2"/>
+      <c r="R64" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="65" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
@@ -3173,7 +3291,9 @@
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
+      <c r="R65" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="66" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
@@ -3212,7 +3332,9 @@
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
-      <c r="R66" s="2"/>
+      <c r="R66" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="67" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
@@ -3251,7 +3373,9 @@
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
+      <c r="R67" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="68" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
@@ -3290,7 +3414,9 @@
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
+      <c r="R68" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="69" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
@@ -3329,7 +3455,9 @@
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
-      <c r="R69" s="2"/>
+      <c r="R69" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="70" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
@@ -3368,7 +3496,9 @@
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
-      <c r="R70" s="2"/>
+      <c r="R70" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="71" spans="1:18" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
@@ -3417,7 +3547,9 @@
       </c>
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
-      <c r="R71" s="3"/>
+      <c r="R71" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="72" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
@@ -3456,7 +3588,9 @@
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
-      <c r="R72" s="2"/>
+      <c r="R72" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="73" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
@@ -3495,7 +3629,9 @@
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
-      <c r="R73" s="2"/>
+      <c r="R73" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="74" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
@@ -3534,7 +3670,9 @@
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
-      <c r="R74" s="2"/>
+      <c r="R74" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="75" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
@@ -3573,7 +3711,9 @@
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
+      <c r="R75" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="76" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
@@ -3612,7 +3752,9 @@
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
+      <c r="R76" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="77" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
@@ -3651,7 +3793,9 @@
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
+      <c r="R77" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="78" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
@@ -3690,7 +3834,9 @@
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
+      <c r="R78" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="79" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
@@ -3729,7 +3875,9 @@
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
+      <c r="R79" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="80" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
@@ -3768,7 +3916,9 @@
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
-      <c r="R80" s="2"/>
+      <c r="R80" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="81" spans="1:18" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
@@ -3821,7 +3971,9 @@
       <c r="Q81" s="3">
         <v>8</v>
       </c>
-      <c r="R81" s="3"/>
+      <c r="R81" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="82" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
@@ -3860,7 +4012,9 @@
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
-      <c r="R82" s="2"/>
+      <c r="R82" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="83" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
@@ -3899,7 +4053,9 @@
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
-      <c r="R83" s="2"/>
+      <c r="R83" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="84" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
@@ -3938,7 +4094,9 @@
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
-      <c r="R84" s="2"/>
+      <c r="R84" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="85" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
@@ -3977,7 +4135,9 @@
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
-      <c r="R85" s="2"/>
+      <c r="R85" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="86" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
@@ -4016,7 +4176,9 @@
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
-      <c r="R86" s="2"/>
+      <c r="R86" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="87" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
@@ -4055,7 +4217,9 @@
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
-      <c r="R87" s="2"/>
+      <c r="R87" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="88" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
@@ -4094,7 +4258,9 @@
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
-      <c r="R88" s="2"/>
+      <c r="R88" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="89" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
@@ -4133,7 +4299,9 @@
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
-      <c r="R89" s="2"/>
+      <c r="R89" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="90" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
@@ -4172,7 +4340,9 @@
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
       <c r="Q90" s="2"/>
-      <c r="R90" s="2"/>
+      <c r="R90" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="91" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
@@ -4211,7 +4381,9 @@
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
-      <c r="R91" s="2"/>
+      <c r="R91" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="92" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
@@ -4250,7 +4422,9 @@
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
-      <c r="R92" s="2"/>
+      <c r="R92" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="93" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
@@ -4289,7 +4463,9 @@
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
       <c r="Q93" s="2"/>
-      <c r="R93" s="2"/>
+      <c r="R93" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="94" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
@@ -4328,7 +4504,9 @@
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
-      <c r="R94" s="2"/>
+      <c r="R94" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="95" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
@@ -4367,7 +4545,9 @@
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
       <c r="Q95" s="2"/>
-      <c r="R95" s="2"/>
+      <c r="R95" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="96" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
@@ -4406,7 +4586,9 @@
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
-      <c r="R96" s="2"/>
+      <c r="R96" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="97" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
@@ -4445,7 +4627,9 @@
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
-      <c r="R97" s="2"/>
+      <c r="R97" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="98" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
@@ -4484,7 +4668,9 @@
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
-      <c r="R98" s="2"/>
+      <c r="R98" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="99" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
@@ -4523,7 +4709,9 @@
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
-      <c r="R99" s="2"/>
+      <c r="R99" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="100" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
@@ -4562,7 +4750,9 @@
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
-      <c r="R100" s="2"/>
+      <c r="R100" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="101" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
@@ -4615,7 +4805,9 @@
       <c r="Q101" s="2">
         <v>8</v>
       </c>
-      <c r="R101" s="2"/>
+      <c r="R101" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="102" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
@@ -4654,7 +4846,9 @@
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
-      <c r="R102" s="2"/>
+      <c r="R102" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="103" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
@@ -4693,7 +4887,9 @@
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
-      <c r="R103" s="2"/>
+      <c r="R103" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="104" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
@@ -4732,7 +4928,9 @@
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
       <c r="Q104" s="2"/>
-      <c r="R104" s="2"/>
+      <c r="R104" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="105" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
@@ -4771,7 +4969,9 @@
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
-      <c r="R105" s="2"/>
+      <c r="R105" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="106" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
@@ -4810,7 +5010,9 @@
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
-      <c r="R106" s="2"/>
+      <c r="R106" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="107" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
@@ -4849,7 +5051,9 @@
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
       <c r="Q107" s="2"/>
-      <c r="R107" s="2"/>
+      <c r="R107" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="108" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
@@ -4888,7 +5092,9 @@
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
       <c r="Q108" s="2"/>
-      <c r="R108" s="2"/>
+      <c r="R108" s="2">
+        <v>500</v>
+      </c>
     </row>
     <row r="109" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
@@ -4927,7 +5133,9 @@
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
       <c r="Q109" s="2"/>
-      <c r="R109" s="2"/>
+      <c r="R109" s="2">
+        <v>500</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/table/人物等级表.xlsx
+++ b/doc/table/人物等级表.xlsx
@@ -533,9 +533,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M101" sqref="M101:R109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -616,27 +616,41 @@
         <v>100</v>
       </c>
       <c r="F2" s="2">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2">
+        <v>100</v>
+      </c>
+      <c r="K2" s="2">
         <v>10</v>
       </c>
-      <c r="G2" s="2">
+      <c r="L2" s="2">
         <v>10</v>
       </c>
-      <c r="H2" s="2">
-        <v>10</v>
-      </c>
-      <c r="I2" s="2">
-        <v>10</v>
-      </c>
-      <c r="J2" s="2">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
       <c r="R2" s="2">
         <v>500</v>
       </c>
@@ -656,27 +670,41 @@
         <v>101</v>
       </c>
       <c r="F3" s="2">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I3" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J3" s="2">
-        <v>12</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="K3" s="2">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2">
+        <v>14</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
       <c r="R3" s="2">
         <v>500</v>
       </c>
@@ -697,27 +725,41 @@
         <v>102</v>
       </c>
       <c r="F4" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H4" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I4" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J4" s="2">
-        <v>14</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="K4" s="2">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2">
+        <v>18</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
       <c r="R4" s="2">
         <v>500</v>
       </c>
@@ -738,27 +780,41 @@
         <v>103</v>
       </c>
       <c r="F5" s="2">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G5" s="2">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H5" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I5" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J5" s="2">
-        <v>16</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="K5" s="2">
+        <v>25</v>
+      </c>
+      <c r="L5" s="2">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
       <c r="R5" s="2">
         <v>500</v>
       </c>
@@ -779,27 +835,41 @@
         <v>104</v>
       </c>
       <c r="F6" s="2">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H6" s="2">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I6" s="2">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J6" s="2">
-        <v>18</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="K6" s="2">
+        <v>30</v>
+      </c>
+      <c r="L6" s="2">
+        <v>26</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
       <c r="R6" s="2">
         <v>500</v>
       </c>
@@ -820,27 +890,41 @@
         <v>105</v>
       </c>
       <c r="F7" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G7" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I7" s="2">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J7" s="2">
-        <v>20</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="K7" s="2">
+        <v>35</v>
+      </c>
+      <c r="L7" s="2">
+        <v>30</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
       <c r="R7" s="2">
         <v>500</v>
       </c>
@@ -861,27 +945,41 @@
         <v>106</v>
       </c>
       <c r="F8" s="2">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G8" s="2">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H8" s="2">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I8" s="2">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J8" s="2">
-        <v>22</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="K8" s="2">
+        <v>40</v>
+      </c>
+      <c r="L8" s="2">
+        <v>34</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
       <c r="R8" s="2">
         <v>500</v>
       </c>
@@ -902,27 +1000,41 @@
         <v>107</v>
       </c>
       <c r="F9" s="2">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H9" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I9" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J9" s="2">
-        <v>24</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="K9" s="2">
+        <v>45</v>
+      </c>
+      <c r="L9" s="2">
+        <v>38</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
       <c r="R9" s="2">
         <v>500</v>
       </c>
@@ -943,27 +1055,41 @@
         <v>108</v>
       </c>
       <c r="F10" s="2">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G10" s="2">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H10" s="2">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I10" s="2">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J10" s="2">
-        <v>26</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="K10" s="2">
+        <v>50</v>
+      </c>
+      <c r="L10" s="2">
+        <v>42</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
       <c r="R10" s="2">
         <v>500</v>
       </c>
@@ -984,25 +1110,25 @@
         <v>109</v>
       </c>
       <c r="F11" s="3">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G11" s="3">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H11" s="3">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I11" s="3">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J11" s="3">
-        <v>28</v>
+        <v>190</v>
       </c>
       <c r="K11" s="3">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="L11" s="3">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="M11" s="3">
         <v>1</v>
@@ -1013,8 +1139,12 @@
       <c r="O11" s="3">
         <v>1</v>
       </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="P11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>1</v>
+      </c>
       <c r="R11" s="2">
         <v>500</v>
       </c>
@@ -1035,27 +1165,41 @@
         <v>110</v>
       </c>
       <c r="F12" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G12" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H12" s="2">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I12" s="2">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J12" s="2">
-        <v>30</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="K12" s="2">
+        <v>60</v>
+      </c>
+      <c r="L12" s="2">
+        <v>50</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1</v>
+      </c>
       <c r="R12" s="2">
         <v>500</v>
       </c>
@@ -1076,27 +1220,41 @@
         <v>111</v>
       </c>
       <c r="F13" s="2">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G13" s="2">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H13" s="2">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I13" s="2">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J13" s="2">
-        <v>32</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="K13" s="2">
+        <v>65</v>
+      </c>
+      <c r="L13" s="2">
+        <v>54</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>1</v>
+      </c>
       <c r="R13" s="2">
         <v>500</v>
       </c>
@@ -1117,27 +1275,41 @@
         <v>112</v>
       </c>
       <c r="F14" s="2">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G14" s="2">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H14" s="2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I14" s="2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J14" s="2">
-        <v>34</v>
-      </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="K14" s="2">
+        <v>70</v>
+      </c>
+      <c r="L14" s="2">
+        <v>58</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>1</v>
+      </c>
       <c r="R14" s="2">
         <v>500</v>
       </c>
@@ -1158,27 +1330,41 @@
         <v>113</v>
       </c>
       <c r="F15" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G15" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H15" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I15" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J15" s="2">
-        <v>36</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="K15" s="2">
+        <v>75</v>
+      </c>
+      <c r="L15" s="2">
+        <v>62</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2">
+        <v>1</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1</v>
+      </c>
       <c r="R15" s="2">
         <v>500</v>
       </c>
@@ -1199,27 +1385,41 @@
         <v>114</v>
       </c>
       <c r="F16" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G16" s="2">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H16" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I16" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="J16" s="2">
-        <v>38</v>
-      </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="K16" s="2">
+        <v>80</v>
+      </c>
+      <c r="L16" s="2">
+        <v>66</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1</v>
+      </c>
       <c r="R16" s="2">
         <v>500</v>
       </c>
@@ -1240,27 +1440,41 @@
         <v>115</v>
       </c>
       <c r="F17" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H17" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I17" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J17" s="2">
-        <v>40</v>
-      </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="K17" s="2">
+        <v>85</v>
+      </c>
+      <c r="L17" s="2">
+        <v>70</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1</v>
+      </c>
+      <c r="O17" s="2">
+        <v>1</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>1</v>
+      </c>
       <c r="R17" s="2">
         <v>500</v>
       </c>
@@ -1281,27 +1495,41 @@
         <v>116</v>
       </c>
       <c r="F18" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G18" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H18" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I18" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J18" s="2">
-        <v>42</v>
-      </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="K18" s="2">
+        <v>90</v>
+      </c>
+      <c r="L18" s="2">
+        <v>74</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>1</v>
+      </c>
       <c r="R18" s="2">
         <v>500</v>
       </c>
@@ -1322,27 +1550,41 @@
         <v>117</v>
       </c>
       <c r="F19" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G19" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H19" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I19" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J19" s="2">
-        <v>44</v>
-      </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="K19" s="2">
+        <v>95</v>
+      </c>
+      <c r="L19" s="2">
+        <v>78</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1</v>
+      </c>
+      <c r="O19" s="2">
+        <v>1</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>1</v>
+      </c>
       <c r="R19" s="2">
         <v>500</v>
       </c>
@@ -1363,27 +1605,41 @@
         <v>118</v>
       </c>
       <c r="F20" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G20" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H20" s="2">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="I20" s="2">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J20" s="2">
-        <v>46</v>
-      </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="K20" s="2">
+        <v>100</v>
+      </c>
+      <c r="L20" s="2">
+        <v>82</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>1</v>
+      </c>
       <c r="R20" s="2">
         <v>500</v>
       </c>
@@ -1404,25 +1660,25 @@
         <v>119</v>
       </c>
       <c r="F21" s="3">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G21" s="3">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H21" s="3">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I21" s="3">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J21" s="3">
-        <v>48</v>
+        <v>340</v>
       </c>
       <c r="K21" s="3">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="L21" s="3">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="M21" s="3">
         <v>2</v>
@@ -1459,27 +1715,41 @@
         <v>120</v>
       </c>
       <c r="F22" s="2">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G22" s="2">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H22" s="2">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I22" s="2">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="J22" s="2">
-        <v>50</v>
-      </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="K22" s="2">
+        <v>110</v>
+      </c>
+      <c r="L22" s="2">
+        <v>90</v>
+      </c>
+      <c r="M22" s="2">
+        <v>2</v>
+      </c>
+      <c r="N22" s="2">
+        <v>2</v>
+      </c>
+      <c r="O22" s="2">
+        <v>2</v>
+      </c>
+      <c r="P22" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>5</v>
+      </c>
       <c r="R22" s="2">
         <v>500</v>
       </c>
@@ -1500,27 +1770,41 @@
         <v>121</v>
       </c>
       <c r="F23" s="2">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="G23" s="2">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H23" s="2">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I23" s="2">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J23" s="2">
-        <v>52</v>
-      </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="K23" s="2">
+        <v>115</v>
+      </c>
+      <c r="L23" s="2">
+        <v>94</v>
+      </c>
+      <c r="M23" s="2">
+        <v>2</v>
+      </c>
+      <c r="N23" s="2">
+        <v>2</v>
+      </c>
+      <c r="O23" s="2">
+        <v>2</v>
+      </c>
+      <c r="P23" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>5</v>
+      </c>
       <c r="R23" s="2">
         <v>500</v>
       </c>
@@ -1541,27 +1825,41 @@
         <v>122</v>
       </c>
       <c r="F24" s="2">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="G24" s="2">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="H24" s="2">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="I24" s="2">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="J24" s="2">
-        <v>54</v>
-      </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="K24" s="2">
+        <v>120</v>
+      </c>
+      <c r="L24" s="2">
+        <v>98</v>
+      </c>
+      <c r="M24" s="2">
+        <v>2</v>
+      </c>
+      <c r="N24" s="2">
+        <v>2</v>
+      </c>
+      <c r="O24" s="2">
+        <v>2</v>
+      </c>
+      <c r="P24" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>5</v>
+      </c>
       <c r="R24" s="2">
         <v>500</v>
       </c>
@@ -1582,27 +1880,41 @@
         <v>123</v>
       </c>
       <c r="F25" s="2">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="G25" s="2">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="H25" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="I25" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="J25" s="2">
-        <v>56</v>
-      </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="K25" s="2">
+        <v>125</v>
+      </c>
+      <c r="L25" s="2">
+        <v>102</v>
+      </c>
+      <c r="M25" s="2">
+        <v>2</v>
+      </c>
+      <c r="N25" s="2">
+        <v>2</v>
+      </c>
+      <c r="O25" s="2">
+        <v>2</v>
+      </c>
+      <c r="P25" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>5</v>
+      </c>
       <c r="R25" s="2">
         <v>500</v>
       </c>
@@ -1623,27 +1935,41 @@
         <v>124</v>
       </c>
       <c r="F26" s="2">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="G26" s="2">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="H26" s="2">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="I26" s="2">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J26" s="2">
-        <v>58</v>
-      </c>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="K26" s="2">
+        <v>130</v>
+      </c>
+      <c r="L26" s="2">
+        <v>106</v>
+      </c>
+      <c r="M26" s="2">
+        <v>2</v>
+      </c>
+      <c r="N26" s="2">
+        <v>2</v>
+      </c>
+      <c r="O26" s="2">
+        <v>2</v>
+      </c>
+      <c r="P26" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>5</v>
+      </c>
       <c r="R26" s="2">
         <v>500</v>
       </c>
@@ -1664,27 +1990,41 @@
         <v>125</v>
       </c>
       <c r="F27" s="2">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="G27" s="2">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="H27" s="2">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="I27" s="2">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="J27" s="2">
-        <v>60</v>
-      </c>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="K27" s="2">
+        <v>135</v>
+      </c>
+      <c r="L27" s="2">
+        <v>110</v>
+      </c>
+      <c r="M27" s="2">
+        <v>2</v>
+      </c>
+      <c r="N27" s="2">
+        <v>2</v>
+      </c>
+      <c r="O27" s="2">
+        <v>2</v>
+      </c>
+      <c r="P27" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>5</v>
+      </c>
       <c r="R27" s="2">
         <v>500</v>
       </c>
@@ -1705,27 +2045,41 @@
         <v>126</v>
       </c>
       <c r="F28" s="2">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="G28" s="2">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="H28" s="2">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="I28" s="2">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="J28" s="2">
-        <v>62</v>
-      </c>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="K28" s="2">
+        <v>140</v>
+      </c>
+      <c r="L28" s="2">
+        <v>114</v>
+      </c>
+      <c r="M28" s="2">
+        <v>2</v>
+      </c>
+      <c r="N28" s="2">
+        <v>2</v>
+      </c>
+      <c r="O28" s="2">
+        <v>2</v>
+      </c>
+      <c r="P28" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>5</v>
+      </c>
       <c r="R28" s="2">
         <v>500</v>
       </c>
@@ -1746,27 +2100,41 @@
         <v>127</v>
       </c>
       <c r="F29" s="2">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="G29" s="2">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="H29" s="2">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="I29" s="2">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="J29" s="2">
-        <v>64</v>
-      </c>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
+        <v>500</v>
+      </c>
+      <c r="K29" s="2">
+        <v>145</v>
+      </c>
+      <c r="L29" s="2">
+        <v>118</v>
+      </c>
+      <c r="M29" s="2">
+        <v>2</v>
+      </c>
+      <c r="N29" s="2">
+        <v>2</v>
+      </c>
+      <c r="O29" s="2">
+        <v>2</v>
+      </c>
+      <c r="P29" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>5</v>
+      </c>
       <c r="R29" s="2">
         <v>500</v>
       </c>
@@ -1787,27 +2155,41 @@
         <v>128</v>
       </c>
       <c r="F30" s="2">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="G30" s="2">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="H30" s="2">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="I30" s="2">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="J30" s="2">
-        <v>66</v>
-      </c>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
+        <v>520</v>
+      </c>
+      <c r="K30" s="2">
+        <v>150</v>
+      </c>
+      <c r="L30" s="2">
+        <v>122</v>
+      </c>
+      <c r="M30" s="2">
+        <v>2</v>
+      </c>
+      <c r="N30" s="2">
+        <v>2</v>
+      </c>
+      <c r="O30" s="2">
+        <v>2</v>
+      </c>
+      <c r="P30" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>5</v>
+      </c>
       <c r="R30" s="2">
         <v>500</v>
       </c>
@@ -1828,25 +2210,25 @@
         <v>129</v>
       </c>
       <c r="F31" s="3">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="G31" s="3">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="H31" s="3">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="I31" s="3">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="J31" s="3">
-        <v>68</v>
+        <v>540</v>
       </c>
       <c r="K31" s="3">
-        <v>3</v>
+        <v>155</v>
       </c>
       <c r="L31" s="3">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="M31" s="3">
         <v>3</v>
@@ -1857,8 +2239,12 @@
       <c r="O31" s="3">
         <v>3</v>
       </c>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
+      <c r="P31" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>5</v>
+      </c>
       <c r="R31" s="2">
         <v>500</v>
       </c>
@@ -1879,27 +2265,41 @@
         <v>130</v>
       </c>
       <c r="F32" s="2">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="G32" s="2">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="H32" s="2">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I32" s="2">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="J32" s="2">
-        <v>70</v>
-      </c>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
+        <v>565</v>
+      </c>
+      <c r="K32" s="2">
+        <v>160</v>
+      </c>
+      <c r="L32" s="2">
+        <v>130</v>
+      </c>
+      <c r="M32" s="2">
+        <v>3</v>
+      </c>
+      <c r="N32" s="2">
+        <v>3</v>
+      </c>
+      <c r="O32" s="2">
+        <v>3</v>
+      </c>
+      <c r="P32" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>5</v>
+      </c>
       <c r="R32" s="2">
         <v>500</v>
       </c>
@@ -1920,27 +2320,41 @@
         <v>131</v>
       </c>
       <c r="F33" s="2">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="G33" s="2">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="H33" s="2">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="I33" s="2">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="J33" s="2">
-        <v>72</v>
-      </c>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
+        <v>590</v>
+      </c>
+      <c r="K33" s="2">
+        <v>165</v>
+      </c>
+      <c r="L33" s="2">
+        <v>134</v>
+      </c>
+      <c r="M33" s="2">
+        <v>3</v>
+      </c>
+      <c r="N33" s="2">
+        <v>3</v>
+      </c>
+      <c r="O33" s="2">
+        <v>3</v>
+      </c>
+      <c r="P33" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>5</v>
+      </c>
       <c r="R33" s="2">
         <v>500</v>
       </c>
@@ -1961,27 +2375,41 @@
         <v>132</v>
       </c>
       <c r="F34" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="G34" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="H34" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="I34" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="J34" s="2">
-        <v>74</v>
-      </c>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
+        <v>615</v>
+      </c>
+      <c r="K34" s="2">
+        <v>170</v>
+      </c>
+      <c r="L34" s="2">
+        <v>138</v>
+      </c>
+      <c r="M34" s="2">
+        <v>3</v>
+      </c>
+      <c r="N34" s="2">
+        <v>3</v>
+      </c>
+      <c r="O34" s="2">
+        <v>3</v>
+      </c>
+      <c r="P34" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>5</v>
+      </c>
       <c r="R34" s="2">
         <v>500</v>
       </c>
@@ -2002,27 +2430,41 @@
         <v>133</v>
       </c>
       <c r="F35" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="G35" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="H35" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="I35" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="J35" s="2">
-        <v>76</v>
-      </c>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
+        <v>640</v>
+      </c>
+      <c r="K35" s="2">
+        <v>175</v>
+      </c>
+      <c r="L35" s="2">
+        <v>142</v>
+      </c>
+      <c r="M35" s="2">
+        <v>3</v>
+      </c>
+      <c r="N35" s="2">
+        <v>3</v>
+      </c>
+      <c r="O35" s="2">
+        <v>3</v>
+      </c>
+      <c r="P35" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>5</v>
+      </c>
       <c r="R35" s="2">
         <v>500</v>
       </c>
@@ -2043,27 +2485,41 @@
         <v>134</v>
       </c>
       <c r="F36" s="2">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="G36" s="2">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="H36" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="I36" s="2">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="J36" s="2">
-        <v>78</v>
-      </c>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
+        <v>665</v>
+      </c>
+      <c r="K36" s="2">
+        <v>180</v>
+      </c>
+      <c r="L36" s="2">
+        <v>146</v>
+      </c>
+      <c r="M36" s="2">
+        <v>3</v>
+      </c>
+      <c r="N36" s="2">
+        <v>3</v>
+      </c>
+      <c r="O36" s="2">
+        <v>3</v>
+      </c>
+      <c r="P36" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>5</v>
+      </c>
       <c r="R36" s="2">
         <v>500</v>
       </c>
@@ -2084,27 +2540,41 @@
         <v>135</v>
       </c>
       <c r="F37" s="2">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="G37" s="2">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="H37" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="I37" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="J37" s="2">
-        <v>80</v>
-      </c>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
+        <v>690</v>
+      </c>
+      <c r="K37" s="2">
+        <v>185</v>
+      </c>
+      <c r="L37" s="2">
+        <v>150</v>
+      </c>
+      <c r="M37" s="2">
+        <v>3</v>
+      </c>
+      <c r="N37" s="2">
+        <v>3</v>
+      </c>
+      <c r="O37" s="2">
+        <v>3</v>
+      </c>
+      <c r="P37" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>5</v>
+      </c>
       <c r="R37" s="2">
         <v>500</v>
       </c>
@@ -2125,27 +2595,41 @@
         <v>136</v>
       </c>
       <c r="F38" s="2">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="G38" s="2">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="H38" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="I38" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="J38" s="2">
-        <v>82</v>
-      </c>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
+        <v>715</v>
+      </c>
+      <c r="K38" s="2">
+        <v>190</v>
+      </c>
+      <c r="L38" s="2">
+        <v>154</v>
+      </c>
+      <c r="M38" s="2">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>5</v>
+      </c>
       <c r="R38" s="2">
         <v>500</v>
       </c>
@@ -2166,27 +2650,41 @@
         <v>137</v>
       </c>
       <c r="F39" s="2">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="G39" s="2">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="H39" s="2">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="I39" s="2">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="J39" s="2">
-        <v>84</v>
-      </c>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
+        <v>740</v>
+      </c>
+      <c r="K39" s="2">
+        <v>195</v>
+      </c>
+      <c r="L39" s="2">
+        <v>158</v>
+      </c>
+      <c r="M39" s="2">
+        <v>3</v>
+      </c>
+      <c r="N39" s="2">
+        <v>3</v>
+      </c>
+      <c r="O39" s="2">
+        <v>3</v>
+      </c>
+      <c r="P39" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>5</v>
+      </c>
       <c r="R39" s="2">
         <v>500</v>
       </c>
@@ -2207,27 +2705,41 @@
         <v>138</v>
       </c>
       <c r="F40" s="2">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="G40" s="2">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="H40" s="2">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="I40" s="2">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="J40" s="2">
-        <v>86</v>
-      </c>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
+        <v>765</v>
+      </c>
+      <c r="K40" s="2">
+        <v>200</v>
+      </c>
+      <c r="L40" s="2">
+        <v>162</v>
+      </c>
+      <c r="M40" s="2">
+        <v>3</v>
+      </c>
+      <c r="N40" s="2">
+        <v>3</v>
+      </c>
+      <c r="O40" s="2">
+        <v>3</v>
+      </c>
+      <c r="P40" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>5</v>
+      </c>
       <c r="R40" s="2">
         <v>500</v>
       </c>
@@ -2248,25 +2760,25 @@
         <v>139</v>
       </c>
       <c r="F41" s="3">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="G41" s="3">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="H41" s="3">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="I41" s="3">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="J41" s="3">
-        <v>88</v>
+        <v>790</v>
       </c>
       <c r="K41" s="3">
-        <v>4</v>
+        <v>205</v>
       </c>
       <c r="L41" s="3">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="M41" s="3">
         <v>4</v>
@@ -2303,27 +2815,41 @@
         <v>140</v>
       </c>
       <c r="F42" s="2">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="G42" s="2">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="H42" s="2">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="I42" s="2">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="J42" s="2">
-        <v>90</v>
-      </c>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
+        <v>820</v>
+      </c>
+      <c r="K42" s="2">
+        <v>210</v>
+      </c>
+      <c r="L42" s="2">
+        <v>170</v>
+      </c>
+      <c r="M42" s="2">
+        <v>4</v>
+      </c>
+      <c r="N42" s="2">
+        <v>4</v>
+      </c>
+      <c r="O42" s="2">
+        <v>4</v>
+      </c>
+      <c r="P42" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>8</v>
+      </c>
       <c r="R42" s="2">
         <v>500</v>
       </c>
@@ -2344,27 +2870,41 @@
         <v>141</v>
       </c>
       <c r="F43" s="2">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="G43" s="2">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="H43" s="2">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="I43" s="2">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="J43" s="2">
-        <v>92</v>
-      </c>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
+        <v>850</v>
+      </c>
+      <c r="K43" s="2">
+        <v>215</v>
+      </c>
+      <c r="L43" s="2">
+        <v>174</v>
+      </c>
+      <c r="M43" s="2">
+        <v>4</v>
+      </c>
+      <c r="N43" s="2">
+        <v>4</v>
+      </c>
+      <c r="O43" s="2">
+        <v>4</v>
+      </c>
+      <c r="P43" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>8</v>
+      </c>
       <c r="R43" s="2">
         <v>500</v>
       </c>
@@ -2385,27 +2925,41 @@
         <v>142</v>
       </c>
       <c r="F44" s="2">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="G44" s="2">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="H44" s="2">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="I44" s="2">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="J44" s="2">
-        <v>94</v>
-      </c>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
+        <v>880</v>
+      </c>
+      <c r="K44" s="2">
+        <v>220</v>
+      </c>
+      <c r="L44" s="2">
+        <v>178</v>
+      </c>
+      <c r="M44" s="2">
+        <v>4</v>
+      </c>
+      <c r="N44" s="2">
+        <v>4</v>
+      </c>
+      <c r="O44" s="2">
+        <v>4</v>
+      </c>
+      <c r="P44" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>8</v>
+      </c>
       <c r="R44" s="2">
         <v>500</v>
       </c>
@@ -2426,27 +2980,41 @@
         <v>143</v>
       </c>
       <c r="F45" s="2">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="G45" s="2">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="H45" s="2">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="I45" s="2">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="J45" s="2">
-        <v>96</v>
-      </c>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
+        <v>910</v>
+      </c>
+      <c r="K45" s="2">
+        <v>225</v>
+      </c>
+      <c r="L45" s="2">
+        <v>182</v>
+      </c>
+      <c r="M45" s="2">
+        <v>4</v>
+      </c>
+      <c r="N45" s="2">
+        <v>4</v>
+      </c>
+      <c r="O45" s="2">
+        <v>4</v>
+      </c>
+      <c r="P45" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>8</v>
+      </c>
       <c r="R45" s="2">
         <v>500</v>
       </c>
@@ -2467,27 +3035,41 @@
         <v>144</v>
       </c>
       <c r="F46" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="G46" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="H46" s="2">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="I46" s="2">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="J46" s="2">
-        <v>98</v>
-      </c>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
+        <v>940</v>
+      </c>
+      <c r="K46" s="2">
+        <v>230</v>
+      </c>
+      <c r="L46" s="2">
+        <v>186</v>
+      </c>
+      <c r="M46" s="2">
+        <v>4</v>
+      </c>
+      <c r="N46" s="2">
+        <v>4</v>
+      </c>
+      <c r="O46" s="2">
+        <v>4</v>
+      </c>
+      <c r="P46" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>8</v>
+      </c>
       <c r="R46" s="2">
         <v>500</v>
       </c>
@@ -2508,27 +3090,41 @@
         <v>145</v>
       </c>
       <c r="F47" s="2">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="G47" s="2">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="H47" s="2">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="I47" s="2">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="J47" s="2">
-        <v>100</v>
-      </c>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
+        <v>970</v>
+      </c>
+      <c r="K47" s="2">
+        <v>235</v>
+      </c>
+      <c r="L47" s="2">
+        <v>190</v>
+      </c>
+      <c r="M47" s="2">
+        <v>4</v>
+      </c>
+      <c r="N47" s="2">
+        <v>4</v>
+      </c>
+      <c r="O47" s="2">
+        <v>4</v>
+      </c>
+      <c r="P47" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>8</v>
+      </c>
       <c r="R47" s="2">
         <v>500</v>
       </c>
@@ -2549,27 +3145,41 @@
         <v>146</v>
       </c>
       <c r="F48" s="2">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="G48" s="2">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="H48" s="2">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="I48" s="2">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="J48" s="2">
-        <v>102</v>
-      </c>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
+        <v>1000</v>
+      </c>
+      <c r="K48" s="2">
+        <v>240</v>
+      </c>
+      <c r="L48" s="2">
+        <v>194</v>
+      </c>
+      <c r="M48" s="2">
+        <v>4</v>
+      </c>
+      <c r="N48" s="2">
+        <v>4</v>
+      </c>
+      <c r="O48" s="2">
+        <v>4</v>
+      </c>
+      <c r="P48" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>8</v>
+      </c>
       <c r="R48" s="2">
         <v>500</v>
       </c>
@@ -2590,27 +3200,41 @@
         <v>147</v>
       </c>
       <c r="F49" s="2">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="G49" s="2">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="H49" s="2">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="I49" s="2">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="J49" s="2">
-        <v>104</v>
-      </c>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
+        <v>1030</v>
+      </c>
+      <c r="K49" s="2">
+        <v>245</v>
+      </c>
+      <c r="L49" s="2">
+        <v>198</v>
+      </c>
+      <c r="M49" s="2">
+        <v>4</v>
+      </c>
+      <c r="N49" s="2">
+        <v>4</v>
+      </c>
+      <c r="O49" s="2">
+        <v>4</v>
+      </c>
+      <c r="P49" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>8</v>
+      </c>
       <c r="R49" s="2">
         <v>500</v>
       </c>
@@ -2631,27 +3255,41 @@
         <v>148</v>
       </c>
       <c r="F50" s="2">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="G50" s="2">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="H50" s="2">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="I50" s="2">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="J50" s="2">
-        <v>106</v>
-      </c>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
+        <v>1060</v>
+      </c>
+      <c r="K50" s="2">
+        <v>250</v>
+      </c>
+      <c r="L50" s="2">
+        <v>202</v>
+      </c>
+      <c r="M50" s="2">
+        <v>4</v>
+      </c>
+      <c r="N50" s="2">
+        <v>4</v>
+      </c>
+      <c r="O50" s="2">
+        <v>4</v>
+      </c>
+      <c r="P50" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>8</v>
+      </c>
       <c r="R50" s="2">
         <v>500</v>
       </c>
@@ -2672,25 +3310,25 @@
         <v>149</v>
       </c>
       <c r="F51" s="3">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="G51" s="3">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="H51" s="3">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="I51" s="3">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="J51" s="3">
-        <v>108</v>
+        <v>1090</v>
       </c>
       <c r="K51" s="3">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="L51" s="3">
-        <v>5</v>
+        <v>206</v>
       </c>
       <c r="M51" s="3">
         <v>5</v>
@@ -2701,8 +3339,12 @@
       <c r="O51" s="3">
         <v>5</v>
       </c>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
+      <c r="P51" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>8</v>
+      </c>
       <c r="R51" s="2">
         <v>500</v>
       </c>
@@ -2723,27 +3365,41 @@
         <v>150</v>
       </c>
       <c r="F52" s="2">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="G52" s="2">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="H52" s="2">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="I52" s="2">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="J52" s="2">
-        <v>110</v>
-      </c>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
+        <v>1125</v>
+      </c>
+      <c r="K52" s="2">
+        <v>260</v>
+      </c>
+      <c r="L52" s="2">
+        <v>210</v>
+      </c>
+      <c r="M52" s="2">
+        <v>5</v>
+      </c>
+      <c r="N52" s="2">
+        <v>5</v>
+      </c>
+      <c r="O52" s="2">
+        <v>5</v>
+      </c>
+      <c r="P52" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>8</v>
+      </c>
       <c r="R52" s="2">
         <v>500</v>
       </c>
@@ -2764,27 +3420,41 @@
         <v>151</v>
       </c>
       <c r="F53" s="2">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="G53" s="2">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="H53" s="2">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="I53" s="2">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="J53" s="2">
-        <v>112</v>
-      </c>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
+        <v>1160</v>
+      </c>
+      <c r="K53" s="2">
+        <v>265</v>
+      </c>
+      <c r="L53" s="2">
+        <v>214</v>
+      </c>
+      <c r="M53" s="2">
+        <v>5</v>
+      </c>
+      <c r="N53" s="2">
+        <v>5</v>
+      </c>
+      <c r="O53" s="2">
+        <v>5</v>
+      </c>
+      <c r="P53" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>8</v>
+      </c>
       <c r="R53" s="2">
         <v>500</v>
       </c>
@@ -2805,27 +3475,41 @@
         <v>152</v>
       </c>
       <c r="F54" s="2">
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="G54" s="2">
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="H54" s="2">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="I54" s="2">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="J54" s="2">
-        <v>114</v>
-      </c>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
+        <v>1195</v>
+      </c>
+      <c r="K54" s="2">
+        <v>270</v>
+      </c>
+      <c r="L54" s="2">
+        <v>218</v>
+      </c>
+      <c r="M54" s="2">
+        <v>5</v>
+      </c>
+      <c r="N54" s="2">
+        <v>5</v>
+      </c>
+      <c r="O54" s="2">
+        <v>5</v>
+      </c>
+      <c r="P54" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>8</v>
+      </c>
       <c r="R54" s="2">
         <v>500</v>
       </c>
@@ -2846,27 +3530,41 @@
         <v>153</v>
       </c>
       <c r="F55" s="2">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="G55" s="2">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="H55" s="2">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="I55" s="2">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="J55" s="2">
-        <v>116</v>
-      </c>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
+        <v>1230</v>
+      </c>
+      <c r="K55" s="2">
+        <v>275</v>
+      </c>
+      <c r="L55" s="2">
+        <v>222</v>
+      </c>
+      <c r="M55" s="2">
+        <v>5</v>
+      </c>
+      <c r="N55" s="2">
+        <v>5</v>
+      </c>
+      <c r="O55" s="2">
+        <v>5</v>
+      </c>
+      <c r="P55" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>8</v>
+      </c>
       <c r="R55" s="2">
         <v>500</v>
       </c>
@@ -2887,27 +3585,41 @@
         <v>154</v>
       </c>
       <c r="F56" s="2">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="G56" s="2">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="H56" s="2">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="I56" s="2">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="J56" s="2">
-        <v>118</v>
-      </c>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
+        <v>1265</v>
+      </c>
+      <c r="K56" s="2">
+        <v>280</v>
+      </c>
+      <c r="L56" s="2">
+        <v>226</v>
+      </c>
+      <c r="M56" s="2">
+        <v>5</v>
+      </c>
+      <c r="N56" s="2">
+        <v>5</v>
+      </c>
+      <c r="O56" s="2">
+        <v>5</v>
+      </c>
+      <c r="P56" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>8</v>
+      </c>
       <c r="R56" s="2">
         <v>500</v>
       </c>
@@ -2928,27 +3640,41 @@
         <v>155</v>
       </c>
       <c r="F57" s="2">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="G57" s="2">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="H57" s="2">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="I57" s="2">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="J57" s="2">
-        <v>120</v>
-      </c>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
+        <v>1300</v>
+      </c>
+      <c r="K57" s="2">
+        <v>285</v>
+      </c>
+      <c r="L57" s="2">
+        <v>230</v>
+      </c>
+      <c r="M57" s="2">
+        <v>5</v>
+      </c>
+      <c r="N57" s="2">
+        <v>5</v>
+      </c>
+      <c r="O57" s="2">
+        <v>5</v>
+      </c>
+      <c r="P57" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>8</v>
+      </c>
       <c r="R57" s="2">
         <v>500</v>
       </c>
@@ -2969,27 +3695,41 @@
         <v>156</v>
       </c>
       <c r="F58" s="2">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="G58" s="2">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="H58" s="2">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="I58" s="2">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="J58" s="2">
-        <v>122</v>
-      </c>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
+        <v>1335</v>
+      </c>
+      <c r="K58" s="2">
+        <v>290</v>
+      </c>
+      <c r="L58" s="2">
+        <v>234</v>
+      </c>
+      <c r="M58" s="2">
+        <v>5</v>
+      </c>
+      <c r="N58" s="2">
+        <v>5</v>
+      </c>
+      <c r="O58" s="2">
+        <v>5</v>
+      </c>
+      <c r="P58" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>8</v>
+      </c>
       <c r="R58" s="2">
         <v>500</v>
       </c>
@@ -3010,27 +3750,41 @@
         <v>157</v>
       </c>
       <c r="F59" s="2">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="G59" s="2">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="H59" s="2">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="I59" s="2">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="J59" s="2">
-        <v>124</v>
-      </c>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
+        <v>1370</v>
+      </c>
+      <c r="K59" s="2">
+        <v>295</v>
+      </c>
+      <c r="L59" s="2">
+        <v>238</v>
+      </c>
+      <c r="M59" s="2">
+        <v>5</v>
+      </c>
+      <c r="N59" s="2">
+        <v>5</v>
+      </c>
+      <c r="O59" s="2">
+        <v>5</v>
+      </c>
+      <c r="P59" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>8</v>
+      </c>
       <c r="R59" s="2">
         <v>500</v>
       </c>
@@ -3051,27 +3805,41 @@
         <v>158</v>
       </c>
       <c r="F60" s="2">
-        <v>126</v>
+        <v>203</v>
       </c>
       <c r="G60" s="2">
-        <v>126</v>
+        <v>203</v>
       </c>
       <c r="H60" s="2">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="I60" s="2">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="J60" s="2">
-        <v>126</v>
-      </c>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
+        <v>1405</v>
+      </c>
+      <c r="K60" s="2">
+        <v>300</v>
+      </c>
+      <c r="L60" s="2">
+        <v>242</v>
+      </c>
+      <c r="M60" s="2">
+        <v>5</v>
+      </c>
+      <c r="N60" s="2">
+        <v>5</v>
+      </c>
+      <c r="O60" s="2">
+        <v>5</v>
+      </c>
+      <c r="P60" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>8</v>
+      </c>
       <c r="R60" s="2">
         <v>500</v>
       </c>
@@ -3092,25 +3860,25 @@
         <v>159</v>
       </c>
       <c r="F61" s="3">
-        <v>128</v>
+        <v>208</v>
       </c>
       <c r="G61" s="3">
-        <v>128</v>
+        <v>208</v>
       </c>
       <c r="H61" s="3">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="I61" s="3">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="J61" s="3">
-        <v>128</v>
+        <v>1440</v>
       </c>
       <c r="K61" s="3">
-        <v>6</v>
+        <v>305</v>
       </c>
       <c r="L61" s="3">
-        <v>6</v>
+        <v>246</v>
       </c>
       <c r="M61" s="3">
         <v>6</v>
@@ -3147,27 +3915,41 @@
         <v>160</v>
       </c>
       <c r="F62" s="2">
-        <v>130</v>
+        <v>213</v>
       </c>
       <c r="G62" s="2">
-        <v>130</v>
+        <v>213</v>
       </c>
       <c r="H62" s="2">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="I62" s="2">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="J62" s="2">
-        <v>130</v>
-      </c>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
+        <v>1480</v>
+      </c>
+      <c r="K62" s="2">
+        <v>310</v>
+      </c>
+      <c r="L62" s="2">
+        <v>250</v>
+      </c>
+      <c r="M62" s="2">
+        <v>6</v>
+      </c>
+      <c r="N62" s="2">
+        <v>6</v>
+      </c>
+      <c r="O62" s="2">
+        <v>6</v>
+      </c>
+      <c r="P62" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>8</v>
+      </c>
       <c r="R62" s="2">
         <v>500</v>
       </c>
@@ -3188,27 +3970,41 @@
         <v>161</v>
       </c>
       <c r="F63" s="2">
-        <v>132</v>
+        <v>218</v>
       </c>
       <c r="G63" s="2">
-        <v>132</v>
+        <v>218</v>
       </c>
       <c r="H63" s="2">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="I63" s="2">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="J63" s="2">
-        <v>132</v>
-      </c>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
+        <v>1520</v>
+      </c>
+      <c r="K63" s="2">
+        <v>315</v>
+      </c>
+      <c r="L63" s="2">
+        <v>254</v>
+      </c>
+      <c r="M63" s="2">
+        <v>6</v>
+      </c>
+      <c r="N63" s="2">
+        <v>6</v>
+      </c>
+      <c r="O63" s="2">
+        <v>6</v>
+      </c>
+      <c r="P63" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>8</v>
+      </c>
       <c r="R63" s="2">
         <v>500</v>
       </c>
@@ -3229,27 +4025,41 @@
         <v>162</v>
       </c>
       <c r="F64" s="2">
-        <v>134</v>
+        <v>223</v>
       </c>
       <c r="G64" s="2">
-        <v>134</v>
+        <v>223</v>
       </c>
       <c r="H64" s="2">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="I64" s="2">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="J64" s="2">
-        <v>134</v>
-      </c>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
+        <v>1560</v>
+      </c>
+      <c r="K64" s="2">
+        <v>320</v>
+      </c>
+      <c r="L64" s="2">
+        <v>258</v>
+      </c>
+      <c r="M64" s="2">
+        <v>6</v>
+      </c>
+      <c r="N64" s="2">
+        <v>6</v>
+      </c>
+      <c r="O64" s="2">
+        <v>6</v>
+      </c>
+      <c r="P64" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>8</v>
+      </c>
       <c r="R64" s="2">
         <v>500</v>
       </c>
@@ -3270,27 +4080,41 @@
         <v>163</v>
       </c>
       <c r="F65" s="2">
-        <v>136</v>
+        <v>228</v>
       </c>
       <c r="G65" s="2">
-        <v>136</v>
+        <v>228</v>
       </c>
       <c r="H65" s="2">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="I65" s="2">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="J65" s="2">
-        <v>136</v>
-      </c>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
+        <v>1600</v>
+      </c>
+      <c r="K65" s="2">
+        <v>325</v>
+      </c>
+      <c r="L65" s="2">
+        <v>262</v>
+      </c>
+      <c r="M65" s="2">
+        <v>6</v>
+      </c>
+      <c r="N65" s="2">
+        <v>6</v>
+      </c>
+      <c r="O65" s="2">
+        <v>6</v>
+      </c>
+      <c r="P65" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>8</v>
+      </c>
       <c r="R65" s="2">
         <v>500</v>
       </c>
@@ -3311,27 +4135,41 @@
         <v>164</v>
       </c>
       <c r="F66" s="2">
-        <v>138</v>
+        <v>233</v>
       </c>
       <c r="G66" s="2">
-        <v>138</v>
+        <v>233</v>
       </c>
       <c r="H66" s="2">
-        <v>138</v>
+        <v>204</v>
       </c>
       <c r="I66" s="2">
-        <v>138</v>
+        <v>204</v>
       </c>
       <c r="J66" s="2">
-        <v>138</v>
-      </c>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
+        <v>1640</v>
+      </c>
+      <c r="K66" s="2">
+        <v>330</v>
+      </c>
+      <c r="L66" s="2">
+        <v>266</v>
+      </c>
+      <c r="M66" s="2">
+        <v>6</v>
+      </c>
+      <c r="N66" s="2">
+        <v>6</v>
+      </c>
+      <c r="O66" s="2">
+        <v>6</v>
+      </c>
+      <c r="P66" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>8</v>
+      </c>
       <c r="R66" s="2">
         <v>500</v>
       </c>
@@ -3352,27 +4190,41 @@
         <v>165</v>
       </c>
       <c r="F67" s="2">
-        <v>140</v>
+        <v>238</v>
       </c>
       <c r="G67" s="2">
-        <v>140</v>
+        <v>238</v>
       </c>
       <c r="H67" s="2">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="I67" s="2">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="J67" s="2">
-        <v>140</v>
-      </c>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
+        <v>1680</v>
+      </c>
+      <c r="K67" s="2">
+        <v>335</v>
+      </c>
+      <c r="L67" s="2">
+        <v>270</v>
+      </c>
+      <c r="M67" s="2">
+        <v>6</v>
+      </c>
+      <c r="N67" s="2">
+        <v>6</v>
+      </c>
+      <c r="O67" s="2">
+        <v>6</v>
+      </c>
+      <c r="P67" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>8</v>
+      </c>
       <c r="R67" s="2">
         <v>500</v>
       </c>
@@ -3393,27 +4245,41 @@
         <v>166</v>
       </c>
       <c r="F68" s="2">
-        <v>142</v>
+        <v>243</v>
       </c>
       <c r="G68" s="2">
-        <v>142</v>
+        <v>243</v>
       </c>
       <c r="H68" s="2">
-        <v>142</v>
+        <v>212</v>
       </c>
       <c r="I68" s="2">
-        <v>142</v>
+        <v>212</v>
       </c>
       <c r="J68" s="2">
-        <v>142</v>
-      </c>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
+        <v>1720</v>
+      </c>
+      <c r="K68" s="2">
+        <v>340</v>
+      </c>
+      <c r="L68" s="2">
+        <v>274</v>
+      </c>
+      <c r="M68" s="2">
+        <v>6</v>
+      </c>
+      <c r="N68" s="2">
+        <v>6</v>
+      </c>
+      <c r="O68" s="2">
+        <v>6</v>
+      </c>
+      <c r="P68" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>8</v>
+      </c>
       <c r="R68" s="2">
         <v>500</v>
       </c>
@@ -3434,27 +4300,41 @@
         <v>167</v>
       </c>
       <c r="F69" s="2">
-        <v>144</v>
+        <v>248</v>
       </c>
       <c r="G69" s="2">
-        <v>144</v>
+        <v>248</v>
       </c>
       <c r="H69" s="2">
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="I69" s="2">
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="J69" s="2">
-        <v>144</v>
-      </c>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
+        <v>1760</v>
+      </c>
+      <c r="K69" s="2">
+        <v>345</v>
+      </c>
+      <c r="L69" s="2">
+        <v>278</v>
+      </c>
+      <c r="M69" s="2">
+        <v>6</v>
+      </c>
+      <c r="N69" s="2">
+        <v>6</v>
+      </c>
+      <c r="O69" s="2">
+        <v>6</v>
+      </c>
+      <c r="P69" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>8</v>
+      </c>
       <c r="R69" s="2">
         <v>500</v>
       </c>
@@ -3475,27 +4355,41 @@
         <v>168</v>
       </c>
       <c r="F70" s="2">
-        <v>146</v>
+        <v>253</v>
       </c>
       <c r="G70" s="2">
-        <v>146</v>
+        <v>253</v>
       </c>
       <c r="H70" s="2">
-        <v>146</v>
+        <v>220</v>
       </c>
       <c r="I70" s="2">
-        <v>146</v>
+        <v>220</v>
       </c>
       <c r="J70" s="2">
-        <v>146</v>
-      </c>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" s="2"/>
-      <c r="Q70" s="2"/>
+        <v>1800</v>
+      </c>
+      <c r="K70" s="2">
+        <v>350</v>
+      </c>
+      <c r="L70" s="2">
+        <v>282</v>
+      </c>
+      <c r="M70" s="2">
+        <v>6</v>
+      </c>
+      <c r="N70" s="2">
+        <v>6</v>
+      </c>
+      <c r="O70" s="2">
+        <v>6</v>
+      </c>
+      <c r="P70" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>8</v>
+      </c>
       <c r="R70" s="2">
         <v>500</v>
       </c>
@@ -3516,25 +4410,25 @@
         <v>169</v>
       </c>
       <c r="F71" s="3">
-        <v>148</v>
+        <v>258</v>
       </c>
       <c r="G71" s="3">
-        <v>148</v>
+        <v>258</v>
       </c>
       <c r="H71" s="3">
-        <v>148</v>
+        <v>224</v>
       </c>
       <c r="I71" s="3">
-        <v>148</v>
+        <v>224</v>
       </c>
       <c r="J71" s="3">
-        <v>148</v>
+        <v>1840</v>
       </c>
       <c r="K71" s="3">
-        <v>7</v>
+        <v>355</v>
       </c>
       <c r="L71" s="3">
-        <v>7</v>
+        <v>286</v>
       </c>
       <c r="M71" s="3">
         <v>7</v>
@@ -3545,8 +4439,12 @@
       <c r="O71" s="3">
         <v>7</v>
       </c>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="3"/>
+      <c r="P71" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>8</v>
+      </c>
       <c r="R71" s="2">
         <v>500</v>
       </c>
@@ -3567,27 +4465,41 @@
         <v>170</v>
       </c>
       <c r="F72" s="2">
-        <v>150</v>
+        <v>264</v>
       </c>
       <c r="G72" s="2">
-        <v>150</v>
+        <v>264</v>
       </c>
       <c r="H72" s="2">
-        <v>150</v>
+        <v>229</v>
       </c>
       <c r="I72" s="2">
-        <v>150</v>
+        <v>229</v>
       </c>
       <c r="J72" s="2">
-        <v>150</v>
-      </c>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
+        <v>1885</v>
+      </c>
+      <c r="K72" s="2">
+        <v>360</v>
+      </c>
+      <c r="L72" s="2">
+        <v>290</v>
+      </c>
+      <c r="M72" s="2">
+        <v>7</v>
+      </c>
+      <c r="N72" s="2">
+        <v>7</v>
+      </c>
+      <c r="O72" s="2">
+        <v>7</v>
+      </c>
+      <c r="P72" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>8</v>
+      </c>
       <c r="R72" s="2">
         <v>500</v>
       </c>
@@ -3608,27 +4520,41 @@
         <v>171</v>
       </c>
       <c r="F73" s="2">
-        <v>152</v>
+        <v>270</v>
       </c>
       <c r="G73" s="2">
-        <v>152</v>
+        <v>270</v>
       </c>
       <c r="H73" s="2">
-        <v>152</v>
+        <v>234</v>
       </c>
       <c r="I73" s="2">
-        <v>152</v>
+        <v>234</v>
       </c>
       <c r="J73" s="2">
-        <v>152</v>
-      </c>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="2"/>
+        <v>1930</v>
+      </c>
+      <c r="K73" s="2">
+        <v>365</v>
+      </c>
+      <c r="L73" s="2">
+        <v>294</v>
+      </c>
+      <c r="M73" s="2">
+        <v>7</v>
+      </c>
+      <c r="N73" s="2">
+        <v>7</v>
+      </c>
+      <c r="O73" s="2">
+        <v>7</v>
+      </c>
+      <c r="P73" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>8</v>
+      </c>
       <c r="R73" s="2">
         <v>500</v>
       </c>
@@ -3649,27 +4575,41 @@
         <v>172</v>
       </c>
       <c r="F74" s="2">
-        <v>154</v>
+        <v>276</v>
       </c>
       <c r="G74" s="2">
-        <v>154</v>
+        <v>276</v>
       </c>
       <c r="H74" s="2">
-        <v>154</v>
+        <v>239</v>
       </c>
       <c r="I74" s="2">
-        <v>154</v>
+        <v>239</v>
       </c>
       <c r="J74" s="2">
-        <v>154</v>
-      </c>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2"/>
+        <v>1975</v>
+      </c>
+      <c r="K74" s="2">
+        <v>370</v>
+      </c>
+      <c r="L74" s="2">
+        <v>298</v>
+      </c>
+      <c r="M74" s="2">
+        <v>7</v>
+      </c>
+      <c r="N74" s="2">
+        <v>7</v>
+      </c>
+      <c r="O74" s="2">
+        <v>7</v>
+      </c>
+      <c r="P74" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>8</v>
+      </c>
       <c r="R74" s="2">
         <v>500</v>
       </c>
@@ -3690,27 +4630,41 @@
         <v>173</v>
       </c>
       <c r="F75" s="2">
-        <v>156</v>
+        <v>282</v>
       </c>
       <c r="G75" s="2">
-        <v>156</v>
+        <v>282</v>
       </c>
       <c r="H75" s="2">
-        <v>156</v>
+        <v>244</v>
       </c>
       <c r="I75" s="2">
-        <v>156</v>
+        <v>244</v>
       </c>
       <c r="J75" s="2">
-        <v>156</v>
-      </c>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="K75" s="2">
+        <v>375</v>
+      </c>
+      <c r="L75" s="2">
+        <v>302</v>
+      </c>
+      <c r="M75" s="2">
+        <v>7</v>
+      </c>
+      <c r="N75" s="2">
+        <v>7</v>
+      </c>
+      <c r="O75" s="2">
+        <v>7</v>
+      </c>
+      <c r="P75" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>8</v>
+      </c>
       <c r="R75" s="2">
         <v>500</v>
       </c>
@@ -3731,27 +4685,41 @@
         <v>174</v>
       </c>
       <c r="F76" s="2">
-        <v>158</v>
+        <v>288</v>
       </c>
       <c r="G76" s="2">
-        <v>158</v>
+        <v>288</v>
       </c>
       <c r="H76" s="2">
-        <v>158</v>
+        <v>249</v>
       </c>
       <c r="I76" s="2">
-        <v>158</v>
+        <v>249</v>
       </c>
       <c r="J76" s="2">
-        <v>158</v>
-      </c>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
+        <v>2065</v>
+      </c>
+      <c r="K76" s="2">
+        <v>380</v>
+      </c>
+      <c r="L76" s="2">
+        <v>306</v>
+      </c>
+      <c r="M76" s="2">
+        <v>7</v>
+      </c>
+      <c r="N76" s="2">
+        <v>7</v>
+      </c>
+      <c r="O76" s="2">
+        <v>7</v>
+      </c>
+      <c r="P76" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>8</v>
+      </c>
       <c r="R76" s="2">
         <v>500</v>
       </c>
@@ -3772,27 +4740,41 @@
         <v>175</v>
       </c>
       <c r="F77" s="2">
-        <v>160</v>
+        <v>294</v>
       </c>
       <c r="G77" s="2">
-        <v>160</v>
+        <v>294</v>
       </c>
       <c r="H77" s="2">
-        <v>160</v>
+        <v>254</v>
       </c>
       <c r="I77" s="2">
-        <v>160</v>
+        <v>254</v>
       </c>
       <c r="J77" s="2">
-        <v>160</v>
-      </c>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
+        <v>2110</v>
+      </c>
+      <c r="K77" s="2">
+        <v>385</v>
+      </c>
+      <c r="L77" s="2">
+        <v>310</v>
+      </c>
+      <c r="M77" s="2">
+        <v>7</v>
+      </c>
+      <c r="N77" s="2">
+        <v>7</v>
+      </c>
+      <c r="O77" s="2">
+        <v>7</v>
+      </c>
+      <c r="P77" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>8</v>
+      </c>
       <c r="R77" s="2">
         <v>500</v>
       </c>
@@ -3813,27 +4795,41 @@
         <v>176</v>
       </c>
       <c r="F78" s="2">
-        <v>162</v>
+        <v>300</v>
       </c>
       <c r="G78" s="2">
-        <v>162</v>
+        <v>300</v>
       </c>
       <c r="H78" s="2">
-        <v>162</v>
+        <v>259</v>
       </c>
       <c r="I78" s="2">
-        <v>162</v>
+        <v>259</v>
       </c>
       <c r="J78" s="2">
-        <v>162</v>
-      </c>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
+        <v>2155</v>
+      </c>
+      <c r="K78" s="2">
+        <v>390</v>
+      </c>
+      <c r="L78" s="2">
+        <v>314</v>
+      </c>
+      <c r="M78" s="2">
+        <v>7</v>
+      </c>
+      <c r="N78" s="2">
+        <v>7</v>
+      </c>
+      <c r="O78" s="2">
+        <v>7</v>
+      </c>
+      <c r="P78" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>8</v>
+      </c>
       <c r="R78" s="2">
         <v>500</v>
       </c>
@@ -3854,27 +4850,41 @@
         <v>177</v>
       </c>
       <c r="F79" s="2">
-        <v>164</v>
+        <v>306</v>
       </c>
       <c r="G79" s="2">
-        <v>164</v>
+        <v>306</v>
       </c>
       <c r="H79" s="2">
-        <v>164</v>
+        <v>264</v>
       </c>
       <c r="I79" s="2">
-        <v>164</v>
+        <v>264</v>
       </c>
       <c r="J79" s="2">
-        <v>164</v>
-      </c>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
+        <v>2200</v>
+      </c>
+      <c r="K79" s="2">
+        <v>395</v>
+      </c>
+      <c r="L79" s="2">
+        <v>318</v>
+      </c>
+      <c r="M79" s="2">
+        <v>7</v>
+      </c>
+      <c r="N79" s="2">
+        <v>7</v>
+      </c>
+      <c r="O79" s="2">
+        <v>7</v>
+      </c>
+      <c r="P79" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>8</v>
+      </c>
       <c r="R79" s="2">
         <v>500</v>
       </c>
@@ -3895,27 +4905,41 @@
         <v>178</v>
       </c>
       <c r="F80" s="2">
-        <v>166</v>
+        <v>312</v>
       </c>
       <c r="G80" s="2">
-        <v>166</v>
+        <v>312</v>
       </c>
       <c r="H80" s="2">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="I80" s="2">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="J80" s="2">
-        <v>166</v>
-      </c>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="2"/>
+        <v>2245</v>
+      </c>
+      <c r="K80" s="2">
+        <v>400</v>
+      </c>
+      <c r="L80" s="2">
+        <v>322</v>
+      </c>
+      <c r="M80" s="2">
+        <v>7</v>
+      </c>
+      <c r="N80" s="2">
+        <v>7</v>
+      </c>
+      <c r="O80" s="2">
+        <v>7</v>
+      </c>
+      <c r="P80" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>8</v>
+      </c>
       <c r="R80" s="2">
         <v>500</v>
       </c>
@@ -3936,25 +4960,25 @@
         <v>179</v>
       </c>
       <c r="F81" s="3">
-        <v>168</v>
+        <v>318</v>
       </c>
       <c r="G81" s="3">
-        <v>168</v>
+        <v>318</v>
       </c>
       <c r="H81" s="3">
-        <v>168</v>
+        <v>274</v>
       </c>
       <c r="I81" s="3">
-        <v>168</v>
+        <v>274</v>
       </c>
       <c r="J81" s="3">
-        <v>168</v>
+        <v>2290</v>
       </c>
       <c r="K81" s="3">
-        <v>8</v>
+        <v>405</v>
       </c>
       <c r="L81" s="3">
-        <v>8</v>
+        <v>326</v>
       </c>
       <c r="M81" s="3">
         <v>8</v>
@@ -3991,27 +5015,41 @@
         <v>180</v>
       </c>
       <c r="F82" s="2">
-        <v>170</v>
+        <v>324</v>
       </c>
       <c r="G82" s="2">
-        <v>170</v>
+        <v>324</v>
       </c>
       <c r="H82" s="2">
-        <v>170</v>
+        <v>279</v>
       </c>
       <c r="I82" s="2">
-        <v>170</v>
+        <v>279</v>
       </c>
       <c r="J82" s="2">
-        <v>170</v>
-      </c>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" s="2"/>
-      <c r="Q82" s="2"/>
+        <v>2335</v>
+      </c>
+      <c r="K82" s="2">
+        <v>410</v>
+      </c>
+      <c r="L82" s="2">
+        <v>330</v>
+      </c>
+      <c r="M82" s="2">
+        <v>8</v>
+      </c>
+      <c r="N82" s="2">
+        <v>8</v>
+      </c>
+      <c r="O82" s="2">
+        <v>8</v>
+      </c>
+      <c r="P82" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>8</v>
+      </c>
       <c r="R82" s="2">
         <v>500</v>
       </c>
@@ -4032,27 +5070,41 @@
         <v>181</v>
       </c>
       <c r="F83" s="2">
-        <v>172</v>
+        <v>330</v>
       </c>
       <c r="G83" s="2">
-        <v>172</v>
+        <v>330</v>
       </c>
       <c r="H83" s="2">
-        <v>172</v>
+        <v>284</v>
       </c>
       <c r="I83" s="2">
-        <v>172</v>
+        <v>284</v>
       </c>
       <c r="J83" s="2">
-        <v>172</v>
-      </c>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="2"/>
+        <v>2380</v>
+      </c>
+      <c r="K83" s="2">
+        <v>415</v>
+      </c>
+      <c r="L83" s="2">
+        <v>334</v>
+      </c>
+      <c r="M83" s="2">
+        <v>8</v>
+      </c>
+      <c r="N83" s="2">
+        <v>8</v>
+      </c>
+      <c r="O83" s="2">
+        <v>8</v>
+      </c>
+      <c r="P83" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q83" s="2">
+        <v>8</v>
+      </c>
       <c r="R83" s="2">
         <v>500</v>
       </c>
@@ -4073,27 +5125,41 @@
         <v>182</v>
       </c>
       <c r="F84" s="2">
-        <v>174</v>
+        <v>336</v>
       </c>
       <c r="G84" s="2">
-        <v>174</v>
+        <v>336</v>
       </c>
       <c r="H84" s="2">
-        <v>174</v>
+        <v>289</v>
       </c>
       <c r="I84" s="2">
-        <v>174</v>
+        <v>289</v>
       </c>
       <c r="J84" s="2">
-        <v>174</v>
-      </c>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" s="2"/>
-      <c r="Q84" s="2"/>
+        <v>2425</v>
+      </c>
+      <c r="K84" s="2">
+        <v>420</v>
+      </c>
+      <c r="L84" s="2">
+        <v>338</v>
+      </c>
+      <c r="M84" s="2">
+        <v>8</v>
+      </c>
+      <c r="N84" s="2">
+        <v>8</v>
+      </c>
+      <c r="O84" s="2">
+        <v>8</v>
+      </c>
+      <c r="P84" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q84" s="2">
+        <v>8</v>
+      </c>
       <c r="R84" s="2">
         <v>500</v>
       </c>
@@ -4114,27 +5180,41 @@
         <v>183</v>
       </c>
       <c r="F85" s="2">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="G85" s="2">
-        <v>176</v>
+        <v>342</v>
       </c>
       <c r="H85" s="2">
-        <v>176</v>
+        <v>294</v>
       </c>
       <c r="I85" s="2">
-        <v>176</v>
+        <v>294</v>
       </c>
       <c r="J85" s="2">
-        <v>176</v>
-      </c>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" s="2"/>
-      <c r="Q85" s="2"/>
+        <v>2470</v>
+      </c>
+      <c r="K85" s="2">
+        <v>425</v>
+      </c>
+      <c r="L85" s="2">
+        <v>342</v>
+      </c>
+      <c r="M85" s="2">
+        <v>8</v>
+      </c>
+      <c r="N85" s="2">
+        <v>8</v>
+      </c>
+      <c r="O85" s="2">
+        <v>8</v>
+      </c>
+      <c r="P85" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>8</v>
+      </c>
       <c r="R85" s="2">
         <v>500</v>
       </c>
@@ -4155,27 +5235,41 @@
         <v>184</v>
       </c>
       <c r="F86" s="2">
-        <v>178</v>
+        <v>348</v>
       </c>
       <c r="G86" s="2">
-        <v>178</v>
+        <v>348</v>
       </c>
       <c r="H86" s="2">
-        <v>178</v>
+        <v>299</v>
       </c>
       <c r="I86" s="2">
-        <v>178</v>
+        <v>299</v>
       </c>
       <c r="J86" s="2">
-        <v>178</v>
-      </c>
-      <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
-      <c r="P86" s="2"/>
-      <c r="Q86" s="2"/>
+        <v>2515</v>
+      </c>
+      <c r="K86" s="2">
+        <v>430</v>
+      </c>
+      <c r="L86" s="2">
+        <v>346</v>
+      </c>
+      <c r="M86" s="2">
+        <v>8</v>
+      </c>
+      <c r="N86" s="2">
+        <v>8</v>
+      </c>
+      <c r="O86" s="2">
+        <v>8</v>
+      </c>
+      <c r="P86" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>8</v>
+      </c>
       <c r="R86" s="2">
         <v>500</v>
       </c>
@@ -4196,27 +5290,41 @@
         <v>185</v>
       </c>
       <c r="F87" s="2">
-        <v>180</v>
+        <v>354</v>
       </c>
       <c r="G87" s="2">
-        <v>180</v>
+        <v>354</v>
       </c>
       <c r="H87" s="2">
-        <v>180</v>
+        <v>304</v>
       </c>
       <c r="I87" s="2">
-        <v>180</v>
+        <v>304</v>
       </c>
       <c r="J87" s="2">
-        <v>180</v>
-      </c>
-      <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
-      <c r="P87" s="2"/>
-      <c r="Q87" s="2"/>
+        <v>2560</v>
+      </c>
+      <c r="K87" s="2">
+        <v>435</v>
+      </c>
+      <c r="L87" s="2">
+        <v>350</v>
+      </c>
+      <c r="M87" s="2">
+        <v>8</v>
+      </c>
+      <c r="N87" s="2">
+        <v>8</v>
+      </c>
+      <c r="O87" s="2">
+        <v>8</v>
+      </c>
+      <c r="P87" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q87" s="2">
+        <v>8</v>
+      </c>
       <c r="R87" s="2">
         <v>500</v>
       </c>
@@ -4237,27 +5345,41 @@
         <v>186</v>
       </c>
       <c r="F88" s="2">
-        <v>182</v>
+        <v>360</v>
       </c>
       <c r="G88" s="2">
-        <v>182</v>
+        <v>360</v>
       </c>
       <c r="H88" s="2">
-        <v>182</v>
+        <v>309</v>
       </c>
       <c r="I88" s="2">
-        <v>182</v>
+        <v>309</v>
       </c>
       <c r="J88" s="2">
-        <v>182</v>
-      </c>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" s="2"/>
-      <c r="Q88" s="2"/>
+        <v>2605</v>
+      </c>
+      <c r="K88" s="2">
+        <v>440</v>
+      </c>
+      <c r="L88" s="2">
+        <v>354</v>
+      </c>
+      <c r="M88" s="2">
+        <v>8</v>
+      </c>
+      <c r="N88" s="2">
+        <v>8</v>
+      </c>
+      <c r="O88" s="2">
+        <v>8</v>
+      </c>
+      <c r="P88" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q88" s="2">
+        <v>8</v>
+      </c>
       <c r="R88" s="2">
         <v>500</v>
       </c>
@@ -4278,27 +5400,41 @@
         <v>187</v>
       </c>
       <c r="F89" s="2">
-        <v>184</v>
+        <v>366</v>
       </c>
       <c r="G89" s="2">
-        <v>184</v>
+        <v>366</v>
       </c>
       <c r="H89" s="2">
-        <v>184</v>
+        <v>314</v>
       </c>
       <c r="I89" s="2">
-        <v>184</v>
+        <v>314</v>
       </c>
       <c r="J89" s="2">
-        <v>184</v>
-      </c>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-      <c r="P89" s="2"/>
-      <c r="Q89" s="2"/>
+        <v>2650</v>
+      </c>
+      <c r="K89" s="2">
+        <v>445</v>
+      </c>
+      <c r="L89" s="2">
+        <v>358</v>
+      </c>
+      <c r="M89" s="2">
+        <v>8</v>
+      </c>
+      <c r="N89" s="2">
+        <v>8</v>
+      </c>
+      <c r="O89" s="2">
+        <v>8</v>
+      </c>
+      <c r="P89" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q89" s="2">
+        <v>8</v>
+      </c>
       <c r="R89" s="2">
         <v>500</v>
       </c>
@@ -4319,27 +5455,41 @@
         <v>188</v>
       </c>
       <c r="F90" s="2">
-        <v>186</v>
+        <v>372</v>
       </c>
       <c r="G90" s="2">
-        <v>186</v>
+        <v>372</v>
       </c>
       <c r="H90" s="2">
-        <v>186</v>
+        <v>319</v>
       </c>
       <c r="I90" s="2">
-        <v>186</v>
+        <v>319</v>
       </c>
       <c r="J90" s="2">
-        <v>186</v>
-      </c>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="P90" s="2"/>
-      <c r="Q90" s="2"/>
+        <v>2695</v>
+      </c>
+      <c r="K90" s="2">
+        <v>450</v>
+      </c>
+      <c r="L90" s="2">
+        <v>362</v>
+      </c>
+      <c r="M90" s="2">
+        <v>8</v>
+      </c>
+      <c r="N90" s="2">
+        <v>8</v>
+      </c>
+      <c r="O90" s="2">
+        <v>8</v>
+      </c>
+      <c r="P90" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q90" s="2">
+        <v>8</v>
+      </c>
       <c r="R90" s="2">
         <v>500</v>
       </c>
@@ -4360,27 +5510,41 @@
         <v>189</v>
       </c>
       <c r="F91" s="2">
-        <v>188</v>
+        <v>378</v>
       </c>
       <c r="G91" s="2">
-        <v>188</v>
+        <v>378</v>
       </c>
       <c r="H91" s="2">
-        <v>188</v>
+        <v>324</v>
       </c>
       <c r="I91" s="2">
-        <v>188</v>
+        <v>324</v>
       </c>
       <c r="J91" s="2">
-        <v>188</v>
-      </c>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
-      <c r="P91" s="2"/>
-      <c r="Q91" s="2"/>
+        <v>2740</v>
+      </c>
+      <c r="K91" s="2">
+        <v>455</v>
+      </c>
+      <c r="L91" s="2">
+        <v>366</v>
+      </c>
+      <c r="M91" s="2">
+        <v>9</v>
+      </c>
+      <c r="N91" s="2">
+        <v>9</v>
+      </c>
+      <c r="O91" s="2">
+        <v>9</v>
+      </c>
+      <c r="P91" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q91" s="2">
+        <v>9</v>
+      </c>
       <c r="R91" s="2">
         <v>500</v>
       </c>
@@ -4401,27 +5565,41 @@
         <v>190</v>
       </c>
       <c r="F92" s="2">
-        <v>190</v>
+        <v>385</v>
       </c>
       <c r="G92" s="2">
-        <v>190</v>
+        <v>385</v>
       </c>
       <c r="H92" s="2">
-        <v>190</v>
+        <v>329</v>
       </c>
       <c r="I92" s="2">
-        <v>190</v>
+        <v>329</v>
       </c>
       <c r="J92" s="2">
-        <v>190</v>
-      </c>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
-      <c r="P92" s="2"/>
-      <c r="Q92" s="2"/>
+        <v>2790</v>
+      </c>
+      <c r="K92" s="2">
+        <v>460</v>
+      </c>
+      <c r="L92" s="2">
+        <v>370</v>
+      </c>
+      <c r="M92" s="2">
+        <v>9</v>
+      </c>
+      <c r="N92" s="2">
+        <v>9</v>
+      </c>
+      <c r="O92" s="2">
+        <v>9</v>
+      </c>
+      <c r="P92" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q92" s="2">
+        <v>9</v>
+      </c>
       <c r="R92" s="2">
         <v>500</v>
       </c>
@@ -4442,27 +5620,41 @@
         <v>191</v>
       </c>
       <c r="F93" s="2">
-        <v>192</v>
+        <v>392</v>
       </c>
       <c r="G93" s="2">
-        <v>192</v>
+        <v>392</v>
       </c>
       <c r="H93" s="2">
-        <v>192</v>
+        <v>334</v>
       </c>
       <c r="I93" s="2">
-        <v>192</v>
+        <v>334</v>
       </c>
       <c r="J93" s="2">
-        <v>192</v>
-      </c>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
-      <c r="P93" s="2"/>
-      <c r="Q93" s="2"/>
+        <v>2840</v>
+      </c>
+      <c r="K93" s="2">
+        <v>465</v>
+      </c>
+      <c r="L93" s="2">
+        <v>374</v>
+      </c>
+      <c r="M93" s="2">
+        <v>9</v>
+      </c>
+      <c r="N93" s="2">
+        <v>9</v>
+      </c>
+      <c r="O93" s="2">
+        <v>9</v>
+      </c>
+      <c r="P93" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>9</v>
+      </c>
       <c r="R93" s="2">
         <v>500</v>
       </c>
@@ -4483,27 +5675,41 @@
         <v>192</v>
       </c>
       <c r="F94" s="2">
-        <v>194</v>
+        <v>399</v>
       </c>
       <c r="G94" s="2">
-        <v>194</v>
+        <v>399</v>
       </c>
       <c r="H94" s="2">
-        <v>194</v>
+        <v>339</v>
       </c>
       <c r="I94" s="2">
-        <v>194</v>
+        <v>339</v>
       </c>
       <c r="J94" s="2">
-        <v>194</v>
-      </c>
-      <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
-      <c r="P94" s="2"/>
-      <c r="Q94" s="2"/>
+        <v>2890</v>
+      </c>
+      <c r="K94" s="2">
+        <v>470</v>
+      </c>
+      <c r="L94" s="2">
+        <v>378</v>
+      </c>
+      <c r="M94" s="2">
+        <v>9</v>
+      </c>
+      <c r="N94" s="2">
+        <v>9</v>
+      </c>
+      <c r="O94" s="2">
+        <v>9</v>
+      </c>
+      <c r="P94" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q94" s="2">
+        <v>9</v>
+      </c>
       <c r="R94" s="2">
         <v>500</v>
       </c>
@@ -4524,27 +5730,41 @@
         <v>193</v>
       </c>
       <c r="F95" s="2">
-        <v>196</v>
+        <v>406</v>
       </c>
       <c r="G95" s="2">
-        <v>196</v>
+        <v>406</v>
       </c>
       <c r="H95" s="2">
-        <v>196</v>
+        <v>344</v>
       </c>
       <c r="I95" s="2">
-        <v>196</v>
+        <v>344</v>
       </c>
       <c r="J95" s="2">
-        <v>196</v>
-      </c>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
-      <c r="P95" s="2"/>
-      <c r="Q95" s="2"/>
+        <v>2940</v>
+      </c>
+      <c r="K95" s="2">
+        <v>475</v>
+      </c>
+      <c r="L95" s="2">
+        <v>382</v>
+      </c>
+      <c r="M95" s="2">
+        <v>9</v>
+      </c>
+      <c r="N95" s="2">
+        <v>9</v>
+      </c>
+      <c r="O95" s="2">
+        <v>9</v>
+      </c>
+      <c r="P95" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q95" s="2">
+        <v>9</v>
+      </c>
       <c r="R95" s="2">
         <v>500</v>
       </c>
@@ -4565,27 +5785,41 @@
         <v>194</v>
       </c>
       <c r="F96" s="2">
-        <v>198</v>
+        <v>413</v>
       </c>
       <c r="G96" s="2">
-        <v>198</v>
+        <v>413</v>
       </c>
       <c r="H96" s="2">
-        <v>198</v>
+        <v>349</v>
       </c>
       <c r="I96" s="2">
-        <v>198</v>
+        <v>349</v>
       </c>
       <c r="J96" s="2">
-        <v>198</v>
-      </c>
-      <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
-      <c r="P96" s="2"/>
-      <c r="Q96" s="2"/>
+        <v>2990</v>
+      </c>
+      <c r="K96" s="2">
+        <v>480</v>
+      </c>
+      <c r="L96" s="2">
+        <v>386</v>
+      </c>
+      <c r="M96" s="2">
+        <v>9</v>
+      </c>
+      <c r="N96" s="2">
+        <v>9</v>
+      </c>
+      <c r="O96" s="2">
+        <v>9</v>
+      </c>
+      <c r="P96" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q96" s="2">
+        <v>9</v>
+      </c>
       <c r="R96" s="2">
         <v>500</v>
       </c>
@@ -4606,27 +5840,41 @@
         <v>195</v>
       </c>
       <c r="F97" s="2">
-        <v>200</v>
+        <v>420</v>
       </c>
       <c r="G97" s="2">
-        <v>200</v>
+        <v>420</v>
       </c>
       <c r="H97" s="2">
-        <v>200</v>
+        <v>354</v>
       </c>
       <c r="I97" s="2">
-        <v>200</v>
+        <v>354</v>
       </c>
       <c r="J97" s="2">
-        <v>200</v>
-      </c>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
-      <c r="P97" s="2"/>
-      <c r="Q97" s="2"/>
+        <v>3040</v>
+      </c>
+      <c r="K97" s="2">
+        <v>485</v>
+      </c>
+      <c r="L97" s="2">
+        <v>390</v>
+      </c>
+      <c r="M97" s="2">
+        <v>9</v>
+      </c>
+      <c r="N97" s="2">
+        <v>9</v>
+      </c>
+      <c r="O97" s="2">
+        <v>9</v>
+      </c>
+      <c r="P97" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q97" s="2">
+        <v>9</v>
+      </c>
       <c r="R97" s="2">
         <v>500</v>
       </c>
@@ -4647,27 +5895,41 @@
         <v>196</v>
       </c>
       <c r="F98" s="2">
-        <v>202</v>
+        <v>427</v>
       </c>
       <c r="G98" s="2">
-        <v>202</v>
+        <v>427</v>
       </c>
       <c r="H98" s="2">
-        <v>202</v>
+        <v>359</v>
       </c>
       <c r="I98" s="2">
-        <v>202</v>
+        <v>359</v>
       </c>
       <c r="J98" s="2">
-        <v>202</v>
-      </c>
-      <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
-      <c r="P98" s="2"/>
-      <c r="Q98" s="2"/>
+        <v>3090</v>
+      </c>
+      <c r="K98" s="2">
+        <v>490</v>
+      </c>
+      <c r="L98" s="2">
+        <v>394</v>
+      </c>
+      <c r="M98" s="2">
+        <v>9</v>
+      </c>
+      <c r="N98" s="2">
+        <v>9</v>
+      </c>
+      <c r="O98" s="2">
+        <v>9</v>
+      </c>
+      <c r="P98" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q98" s="2">
+        <v>9</v>
+      </c>
       <c r="R98" s="2">
         <v>500</v>
       </c>
@@ -4688,27 +5950,41 @@
         <v>197</v>
       </c>
       <c r="F99" s="2">
-        <v>204</v>
+        <v>434</v>
       </c>
       <c r="G99" s="2">
-        <v>204</v>
+        <v>434</v>
       </c>
       <c r="H99" s="2">
-        <v>204</v>
+        <v>364</v>
       </c>
       <c r="I99" s="2">
-        <v>204</v>
+        <v>364</v>
       </c>
       <c r="J99" s="2">
-        <v>204</v>
-      </c>
-      <c r="K99" s="2"/>
-      <c r="L99" s="2"/>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
-      <c r="P99" s="2"/>
-      <c r="Q99" s="2"/>
+        <v>3140</v>
+      </c>
+      <c r="K99" s="2">
+        <v>495</v>
+      </c>
+      <c r="L99" s="2">
+        <v>398</v>
+      </c>
+      <c r="M99" s="2">
+        <v>9</v>
+      </c>
+      <c r="N99" s="2">
+        <v>9</v>
+      </c>
+      <c r="O99" s="2">
+        <v>9</v>
+      </c>
+      <c r="P99" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q99" s="2">
+        <v>9</v>
+      </c>
       <c r="R99" s="2">
         <v>500</v>
       </c>
@@ -4729,27 +6005,41 @@
         <v>198</v>
       </c>
       <c r="F100" s="2">
-        <v>206</v>
+        <v>441</v>
       </c>
       <c r="G100" s="2">
-        <v>206</v>
+        <v>441</v>
       </c>
       <c r="H100" s="2">
-        <v>206</v>
+        <v>369</v>
       </c>
       <c r="I100" s="2">
-        <v>206</v>
+        <v>369</v>
       </c>
       <c r="J100" s="2">
-        <v>206</v>
-      </c>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
-      <c r="P100" s="2"/>
-      <c r="Q100" s="2"/>
+        <v>3190</v>
+      </c>
+      <c r="K100" s="2">
+        <v>500</v>
+      </c>
+      <c r="L100" s="2">
+        <v>402</v>
+      </c>
+      <c r="M100" s="2">
+        <v>9</v>
+      </c>
+      <c r="N100" s="2">
+        <v>9</v>
+      </c>
+      <c r="O100" s="2">
+        <v>9</v>
+      </c>
+      <c r="P100" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q100" s="2">
+        <v>9</v>
+      </c>
       <c r="R100" s="2">
         <v>500</v>
       </c>
@@ -4770,40 +6060,40 @@
         <v>199</v>
       </c>
       <c r="F101" s="2">
-        <v>208</v>
+        <v>448</v>
       </c>
       <c r="G101" s="2">
-        <v>208</v>
+        <v>448</v>
       </c>
       <c r="H101" s="2">
-        <v>208</v>
+        <v>374</v>
       </c>
       <c r="I101" s="2">
-        <v>208</v>
+        <v>374</v>
       </c>
       <c r="J101" s="2">
-        <v>208</v>
+        <v>3240</v>
       </c>
       <c r="K101" s="2">
-        <v>10</v>
+        <v>505</v>
       </c>
       <c r="L101" s="2">
-        <v>10</v>
+        <v>406</v>
       </c>
       <c r="M101" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N101" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O101" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P101" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q101" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R101" s="2">
         <v>500</v>
@@ -4825,27 +6115,41 @@
         <v>200</v>
       </c>
       <c r="F102" s="2">
-        <v>210</v>
+        <v>455</v>
       </c>
       <c r="G102" s="2">
-        <v>210</v>
+        <v>455</v>
       </c>
       <c r="H102" s="2">
-        <v>210</v>
+        <v>379</v>
       </c>
       <c r="I102" s="2">
-        <v>210</v>
+        <v>379</v>
       </c>
       <c r="J102" s="2">
-        <v>210</v>
-      </c>
-      <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
-      <c r="P102" s="2"/>
-      <c r="Q102" s="2"/>
+        <v>3290</v>
+      </c>
+      <c r="K102" s="2">
+        <v>510</v>
+      </c>
+      <c r="L102" s="2">
+        <v>410</v>
+      </c>
+      <c r="M102" s="2">
+        <v>9</v>
+      </c>
+      <c r="N102" s="2">
+        <v>9</v>
+      </c>
+      <c r="O102" s="2">
+        <v>9</v>
+      </c>
+      <c r="P102" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q102" s="2">
+        <v>9</v>
+      </c>
       <c r="R102" s="2">
         <v>500</v>
       </c>
@@ -4866,27 +6170,41 @@
         <v>201</v>
       </c>
       <c r="F103" s="2">
-        <v>212</v>
+        <v>462</v>
       </c>
       <c r="G103" s="2">
-        <v>212</v>
+        <v>462</v>
       </c>
       <c r="H103" s="2">
-        <v>212</v>
+        <v>384</v>
       </c>
       <c r="I103" s="2">
-        <v>212</v>
+        <v>384</v>
       </c>
       <c r="J103" s="2">
-        <v>212</v>
-      </c>
-      <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
-      <c r="P103" s="2"/>
-      <c r="Q103" s="2"/>
+        <v>3340</v>
+      </c>
+      <c r="K103" s="2">
+        <v>515</v>
+      </c>
+      <c r="L103" s="2">
+        <v>414</v>
+      </c>
+      <c r="M103" s="2">
+        <v>9</v>
+      </c>
+      <c r="N103" s="2">
+        <v>9</v>
+      </c>
+      <c r="O103" s="2">
+        <v>9</v>
+      </c>
+      <c r="P103" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q103" s="2">
+        <v>9</v>
+      </c>
       <c r="R103" s="2">
         <v>500</v>
       </c>
@@ -4907,27 +6225,41 @@
         <v>202</v>
       </c>
       <c r="F104" s="2">
-        <v>214</v>
+        <v>469</v>
       </c>
       <c r="G104" s="2">
-        <v>214</v>
+        <v>469</v>
       </c>
       <c r="H104" s="2">
-        <v>214</v>
+        <v>389</v>
       </c>
       <c r="I104" s="2">
-        <v>214</v>
+        <v>389</v>
       </c>
       <c r="J104" s="2">
-        <v>214</v>
-      </c>
-      <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
-      <c r="P104" s="2"/>
-      <c r="Q104" s="2"/>
+        <v>3390</v>
+      </c>
+      <c r="K104" s="2">
+        <v>520</v>
+      </c>
+      <c r="L104" s="2">
+        <v>418</v>
+      </c>
+      <c r="M104" s="2">
+        <v>9</v>
+      </c>
+      <c r="N104" s="2">
+        <v>9</v>
+      </c>
+      <c r="O104" s="2">
+        <v>9</v>
+      </c>
+      <c r="P104" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q104" s="2">
+        <v>9</v>
+      </c>
       <c r="R104" s="2">
         <v>500</v>
       </c>
@@ -4948,27 +6280,41 @@
         <v>203</v>
       </c>
       <c r="F105" s="2">
-        <v>216</v>
+        <v>476</v>
       </c>
       <c r="G105" s="2">
-        <v>216</v>
+        <v>476</v>
       </c>
       <c r="H105" s="2">
-        <v>216</v>
+        <v>394</v>
       </c>
       <c r="I105" s="2">
-        <v>216</v>
+        <v>394</v>
       </c>
       <c r="J105" s="2">
-        <v>216</v>
-      </c>
-      <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
-      <c r="P105" s="2"/>
-      <c r="Q105" s="2"/>
+        <v>3440</v>
+      </c>
+      <c r="K105" s="2">
+        <v>525</v>
+      </c>
+      <c r="L105" s="2">
+        <v>422</v>
+      </c>
+      <c r="M105" s="2">
+        <v>9</v>
+      </c>
+      <c r="N105" s="2">
+        <v>9</v>
+      </c>
+      <c r="O105" s="2">
+        <v>9</v>
+      </c>
+      <c r="P105" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q105" s="2">
+        <v>9</v>
+      </c>
       <c r="R105" s="2">
         <v>500</v>
       </c>
@@ -4989,27 +6335,41 @@
         <v>204</v>
       </c>
       <c r="F106" s="2">
-        <v>218</v>
+        <v>483</v>
       </c>
       <c r="G106" s="2">
-        <v>218</v>
+        <v>483</v>
       </c>
       <c r="H106" s="2">
-        <v>218</v>
+        <v>399</v>
       </c>
       <c r="I106" s="2">
-        <v>218</v>
+        <v>399</v>
       </c>
       <c r="J106" s="2">
-        <v>218</v>
-      </c>
-      <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
-      <c r="P106" s="2"/>
-      <c r="Q106" s="2"/>
+        <v>3490</v>
+      </c>
+      <c r="K106" s="2">
+        <v>530</v>
+      </c>
+      <c r="L106" s="2">
+        <v>426</v>
+      </c>
+      <c r="M106" s="2">
+        <v>9</v>
+      </c>
+      <c r="N106" s="2">
+        <v>9</v>
+      </c>
+      <c r="O106" s="2">
+        <v>9</v>
+      </c>
+      <c r="P106" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q106" s="2">
+        <v>9</v>
+      </c>
       <c r="R106" s="2">
         <v>500</v>
       </c>
@@ -5030,27 +6390,41 @@
         <v>205</v>
       </c>
       <c r="F107" s="2">
-        <v>220</v>
+        <v>490</v>
       </c>
       <c r="G107" s="2">
-        <v>220</v>
+        <v>490</v>
       </c>
       <c r="H107" s="2">
-        <v>220</v>
+        <v>404</v>
       </c>
       <c r="I107" s="2">
-        <v>220</v>
+        <v>404</v>
       </c>
       <c r="J107" s="2">
-        <v>220</v>
-      </c>
-      <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
-      <c r="P107" s="2"/>
-      <c r="Q107" s="2"/>
+        <v>3540</v>
+      </c>
+      <c r="K107" s="2">
+        <v>535</v>
+      </c>
+      <c r="L107" s="2">
+        <v>430</v>
+      </c>
+      <c r="M107" s="2">
+        <v>9</v>
+      </c>
+      <c r="N107" s="2">
+        <v>9</v>
+      </c>
+      <c r="O107" s="2">
+        <v>9</v>
+      </c>
+      <c r="P107" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q107" s="2">
+        <v>9</v>
+      </c>
       <c r="R107" s="2">
         <v>500</v>
       </c>
@@ -5071,27 +6445,41 @@
         <v>206</v>
       </c>
       <c r="F108" s="2">
-        <v>222</v>
+        <v>497</v>
       </c>
       <c r="G108" s="2">
-        <v>222</v>
+        <v>497</v>
       </c>
       <c r="H108" s="2">
-        <v>222</v>
+        <v>409</v>
       </c>
       <c r="I108" s="2">
-        <v>222</v>
+        <v>409</v>
       </c>
       <c r="J108" s="2">
-        <v>222</v>
-      </c>
-      <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
-      <c r="P108" s="2"/>
-      <c r="Q108" s="2"/>
+        <v>3590</v>
+      </c>
+      <c r="K108" s="2">
+        <v>540</v>
+      </c>
+      <c r="L108" s="2">
+        <v>434</v>
+      </c>
+      <c r="M108" s="2">
+        <v>9</v>
+      </c>
+      <c r="N108" s="2">
+        <v>9</v>
+      </c>
+      <c r="O108" s="2">
+        <v>9</v>
+      </c>
+      <c r="P108" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q108" s="2">
+        <v>9</v>
+      </c>
       <c r="R108" s="2">
         <v>500</v>
       </c>
@@ -5112,27 +6500,41 @@
         <v>207</v>
       </c>
       <c r="F109" s="2">
-        <v>224</v>
+        <v>504</v>
       </c>
       <c r="G109" s="2">
-        <v>224</v>
+        <v>504</v>
       </c>
       <c r="H109" s="2">
-        <v>224</v>
+        <v>414</v>
       </c>
       <c r="I109" s="2">
-        <v>224</v>
+        <v>414</v>
       </c>
       <c r="J109" s="2">
-        <v>224</v>
-      </c>
-      <c r="K109" s="2"/>
-      <c r="L109" s="2"/>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
-      <c r="O109" s="2"/>
-      <c r="P109" s="2"/>
-      <c r="Q109" s="2"/>
+        <v>3640</v>
+      </c>
+      <c r="K109" s="2">
+        <v>545</v>
+      </c>
+      <c r="L109" s="2">
+        <v>438</v>
+      </c>
+      <c r="M109" s="2">
+        <v>9</v>
+      </c>
+      <c r="N109" s="2">
+        <v>9</v>
+      </c>
+      <c r="O109" s="2">
+        <v>9</v>
+      </c>
+      <c r="P109" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q109" s="2">
+        <v>9</v>
+      </c>
       <c r="R109" s="2">
         <v>500</v>
       </c>

--- a/doc/table/人物等级表.xlsx
+++ b/doc/table/人物等级表.xlsx
@@ -167,7 +167,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,12 +183,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -220,13 +214,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -535,7 +528,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M101" sqref="M101:R109"/>
+      <selection pane="bottomLeft" activeCell="U82" sqref="U82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -576,25 +569,25 @@
       <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="5" t="s">
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="R1" s="1" t="s">

--- a/doc/table/人物等级表.xlsx
+++ b/doc/table/人物等级表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>等级</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -131,6 +131,10 @@
   </si>
   <si>
     <t>魔防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力上限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,8 +531,8 @@
   <dimension ref="A1:R109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U82" sqref="U82"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -549,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>12</v>

--- a/doc/table/人物等级表.xlsx
+++ b/doc/table/人物等级表.xlsx
@@ -528,11 +528,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R109"/>
+  <dimension ref="A1:R200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -603,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2">
@@ -711,8 +711,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>FLOOR(B3*1.2,1)</f>
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2">
@@ -766,8 +765,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" ref="B5:B68" si="0">FLOOR(B4*1.2,1)</f>
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2">
@@ -821,8 +819,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" si="0"/>
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
@@ -876,8 +873,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <f t="shared" si="0"/>
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
@@ -931,8 +927,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <f t="shared" si="0"/>
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
@@ -986,8 +981,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <f t="shared" si="0"/>
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
@@ -1041,8 +1035,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <f t="shared" si="0"/>
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
@@ -1096,8 +1089,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" si="0"/>
-        <v>426</v>
+        <v>389</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3">
@@ -1151,8 +1143,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <f t="shared" si="0"/>
-        <v>511</v>
+        <v>457</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
@@ -1206,8 +1197,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" si="0"/>
-        <v>613</v>
+        <v>535</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
@@ -1261,8 +1251,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <f t="shared" si="0"/>
-        <v>735</v>
+        <v>625</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
@@ -1316,8 +1305,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <f t="shared" si="0"/>
-        <v>882</v>
+        <v>729</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
@@ -1371,8 +1359,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <f t="shared" si="0"/>
-        <v>1058</v>
+        <v>848</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
@@ -1426,8 +1413,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <f t="shared" si="0"/>
-        <v>1269</v>
+        <v>984</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
@@ -1481,8 +1467,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <f t="shared" si="0"/>
-        <v>1522</v>
+        <v>1140</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
@@ -1536,8 +1521,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <f t="shared" si="0"/>
-        <v>1826</v>
+        <v>1318</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2">
@@ -1591,8 +1575,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <f t="shared" si="0"/>
-        <v>2191</v>
+        <v>1520</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2">
@@ -1646,8 +1629,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" si="0"/>
-        <v>2629</v>
+        <v>1750</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3">
@@ -1701,8 +1683,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <f t="shared" si="0"/>
-        <v>3154</v>
+        <v>2010</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2">
@@ -1756,8 +1737,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <f t="shared" si="0"/>
-        <v>3784</v>
+        <v>2304</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2">
@@ -1811,8 +1791,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <f t="shared" si="0"/>
-        <v>4540</v>
+        <v>2636</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2">
@@ -1866,8 +1845,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <f t="shared" si="0"/>
-        <v>5448</v>
+        <v>3010</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2">
@@ -1921,8 +1899,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <f t="shared" si="0"/>
-        <v>6537</v>
+        <v>3430</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2">
@@ -1976,8 +1953,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <f t="shared" si="0"/>
-        <v>7844</v>
+        <v>3901</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2">
@@ -2031,8 +2007,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <f t="shared" si="0"/>
-        <v>9412</v>
+        <v>4428</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2">
@@ -2086,8 +2061,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <f t="shared" si="0"/>
-        <v>11294</v>
+        <v>5017</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2">
@@ -2141,8 +2115,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <f t="shared" si="0"/>
-        <v>13552</v>
+        <v>5674</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2">
@@ -2196,8 +2169,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="3">
-        <f t="shared" si="0"/>
-        <v>16262</v>
+        <v>6405</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3">
@@ -2251,8 +2223,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <f t="shared" si="0"/>
-        <v>19514</v>
+        <v>7217</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2">
@@ -2306,8 +2277,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2">
-        <f t="shared" si="0"/>
-        <v>23416</v>
+        <v>8117</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2">
@@ -2361,8 +2331,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2">
-        <f t="shared" si="0"/>
-        <v>28099</v>
+        <v>9114</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2">
@@ -2416,8 +2385,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <f t="shared" si="0"/>
-        <v>33718</v>
+        <v>10215</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2">
@@ -2471,8 +2439,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" si="0"/>
-        <v>40461</v>
+        <v>11430</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2">
@@ -2526,8 +2493,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2">
-        <f t="shared" si="0"/>
-        <v>48553</v>
+        <v>12767</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2">
@@ -2581,8 +2547,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <f t="shared" si="0"/>
-        <v>58263</v>
+        <v>14237</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2">
@@ -2636,8 +2601,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <f t="shared" si="0"/>
-        <v>69915</v>
+        <v>15850</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2">
@@ -2691,8 +2655,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2">
-        <f t="shared" si="0"/>
-        <v>83898</v>
+        <v>17617</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2">
@@ -2746,8 +2709,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3">
-        <f t="shared" si="0"/>
-        <v>100677</v>
+        <v>19550</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3">
@@ -2801,8 +2763,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <f t="shared" si="0"/>
-        <v>120812</v>
+        <v>21661</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2">
@@ -2856,8 +2817,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2">
-        <f t="shared" si="0"/>
-        <v>144974</v>
+        <v>23963</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2">
@@ -2911,8 +2871,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2">
-        <f t="shared" si="0"/>
-        <v>173968</v>
+        <v>26469</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2">
@@ -2966,8 +2925,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2">
-        <f t="shared" si="0"/>
-        <v>208761</v>
+        <v>29193</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2">
@@ -3021,8 +2979,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2">
-        <f t="shared" si="0"/>
-        <v>250513</v>
+        <v>32149</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2">
@@ -3076,8 +3033,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2">
-        <f t="shared" si="0"/>
-        <v>300615</v>
+        <v>35353</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2">
@@ -3131,8 +3087,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2">
-        <f t="shared" si="0"/>
-        <v>360738</v>
+        <v>38820</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2">
@@ -3186,8 +3141,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2">
-        <f t="shared" si="0"/>
-        <v>432885</v>
+        <v>42566</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2">
@@ -3241,8 +3195,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <f t="shared" si="0"/>
-        <v>519462</v>
+        <v>46608</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2">
@@ -3296,8 +3249,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3">
-        <f t="shared" si="0"/>
-        <v>623354</v>
+        <v>50963</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3">
@@ -3351,8 +3303,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2">
-        <f t="shared" si="0"/>
-        <v>748024</v>
+        <v>55649</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2">
@@ -3406,8 +3357,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2">
-        <f t="shared" si="0"/>
-        <v>897628</v>
+        <v>60685</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2">
@@ -3461,8 +3411,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <f t="shared" si="0"/>
-        <v>1077153</v>
+        <v>66089</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2">
@@ -3516,8 +3465,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2">
-        <f t="shared" si="0"/>
-        <v>1292583</v>
+        <v>71880</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2">
@@ -3571,8 +3519,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2">
-        <f t="shared" si="0"/>
-        <v>1551099</v>
+        <v>78078</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2">
@@ -3626,8 +3573,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2">
-        <f t="shared" si="0"/>
-        <v>1861318</v>
+        <v>84703</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2">
@@ -3681,8 +3627,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <f t="shared" si="0"/>
-        <v>2233581</v>
+        <v>91776</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2">
@@ -3736,8 +3681,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <f t="shared" si="0"/>
-        <v>2680297</v>
+        <v>99317</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2">
@@ -3791,8 +3735,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <f t="shared" si="0"/>
-        <v>3216356</v>
+        <v>107348</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2">
@@ -3846,8 +3789,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="3">
-        <f t="shared" si="0"/>
-        <v>3859627</v>
+        <v>115890</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3">
@@ -3901,8 +3843,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <f t="shared" si="0"/>
-        <v>4631552</v>
+        <v>124964</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2">
@@ -3956,8 +3897,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <f t="shared" si="0"/>
-        <v>5557862</v>
+        <v>134593</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2">
@@ -4011,8 +3951,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2">
-        <f t="shared" si="0"/>
-        <v>6669434</v>
+        <v>144798</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2">
@@ -4066,8 +4005,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2">
-        <f t="shared" si="0"/>
-        <v>8003320</v>
+        <v>155602</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2">
@@ -4121,8 +4059,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2">
-        <f t="shared" si="0"/>
-        <v>9603984</v>
+        <v>167027</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2">
@@ -4176,8 +4113,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2">
-        <f t="shared" si="0"/>
-        <v>11524780</v>
+        <v>179095</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2">
@@ -4231,8 +4167,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" si="0"/>
-        <v>13829736</v>
+        <v>191829</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2">
@@ -4286,8 +4221,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2">
-        <f t="shared" ref="B69:B109" si="1">FLOOR(B68*1.2,1)</f>
-        <v>16595683</v>
+        <v>205251</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2">
@@ -4341,8 +4275,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2">
-        <f t="shared" si="1"/>
-        <v>19914819</v>
+        <v>219383</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2">
@@ -4396,8 +4329,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="3">
-        <f t="shared" si="1"/>
-        <v>23897782</v>
+        <v>234247</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3">
@@ -4451,8 +4383,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2">
-        <f t="shared" si="1"/>
-        <v>28677338</v>
+        <v>249865</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2">
@@ -4506,8 +4437,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2">
-        <f t="shared" si="1"/>
-        <v>34412805</v>
+        <v>266258</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2">
@@ -4561,8 +4491,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2">
-        <f t="shared" si="1"/>
-        <v>41295366</v>
+        <v>283448</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2">
@@ -4616,8 +4545,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2">
-        <f t="shared" si="1"/>
-        <v>49554439</v>
+        <v>301456</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2">
@@ -4671,8 +4599,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2">
-        <f t="shared" si="1"/>
-        <v>59465326</v>
+        <v>320303</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2">
@@ -4726,8 +4653,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2">
-        <f t="shared" si="1"/>
-        <v>71358391</v>
+        <v>340009</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2">
@@ -4781,8 +4707,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2">
-        <f t="shared" si="1"/>
-        <v>85630069</v>
+        <v>360593</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2">
@@ -4836,8 +4761,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2">
-        <f t="shared" si="1"/>
-        <v>102756082</v>
+        <v>382075</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2">
@@ -4891,8 +4815,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2">
-        <f t="shared" si="1"/>
-        <v>123307298</v>
+        <v>404474</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2">
@@ -4946,8 +4869,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="3">
-        <f t="shared" si="1"/>
-        <v>147968757</v>
+        <v>427808</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3">
@@ -5001,8 +4923,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2">
-        <f t="shared" si="1"/>
-        <v>177562508</v>
+        <v>452095</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2">
@@ -5056,8 +4977,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2">
-        <f t="shared" si="1"/>
-        <v>213075009</v>
+        <v>477351</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2">
@@ -5111,8 +5031,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="2">
-        <f t="shared" si="1"/>
-        <v>255690010</v>
+        <v>503592</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2">
@@ -5166,8 +5085,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2">
-        <f t="shared" si="1"/>
-        <v>306828012</v>
+        <v>530834</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2">
@@ -5221,8 +5139,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2">
-        <f t="shared" si="1"/>
-        <v>368193614</v>
+        <v>559092</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2">
@@ -5276,8 +5193,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2">
-        <f t="shared" si="1"/>
-        <v>441832336</v>
+        <v>588380</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2">
@@ -5331,8 +5247,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2">
-        <f t="shared" si="1"/>
-        <v>530198803</v>
+        <v>618710</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2">
@@ -5386,8 +5301,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="2">
-        <f t="shared" si="1"/>
-        <v>636238563</v>
+        <v>650095</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2">
@@ -5441,8 +5355,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="2">
-        <f t="shared" si="1"/>
-        <v>763486275</v>
+        <v>682546</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2">
@@ -5496,8 +5409,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="2">
-        <f t="shared" si="1"/>
-        <v>916183530</v>
+        <v>716073</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2">
@@ -5551,8 +5463,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" si="1"/>
-        <v>1099420236</v>
+        <v>750686</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2">
@@ -5606,8 +5517,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="2">
-        <f t="shared" si="1"/>
-        <v>1319304283</v>
+        <v>786393</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2">
@@ -5661,8 +5571,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="2">
-        <f t="shared" si="1"/>
-        <v>1583165139</v>
+        <v>823202</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2">
@@ -5716,8 +5625,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="2">
-        <f t="shared" si="1"/>
-        <v>1899798166</v>
+        <v>861119</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2">
@@ -5771,8 +5679,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="2">
-        <f t="shared" si="1"/>
-        <v>2279757799</v>
+        <v>900150</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2">
@@ -5826,8 +5733,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="2">
-        <f t="shared" si="1"/>
-        <v>2735709358</v>
+        <v>940299</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2">
@@ -5881,8 +5787,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="2">
-        <f t="shared" si="1"/>
-        <v>3282851229</v>
+        <v>981570</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2">
@@ -5936,8 +5841,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="2">
-        <f t="shared" si="1"/>
-        <v>3939421474</v>
+        <v>1023965</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2">
@@ -5991,8 +5895,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="2">
-        <f t="shared" si="1"/>
-        <v>4727305768</v>
+        <v>1067486</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2">
@@ -6046,8 +5949,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="2">
-        <f t="shared" si="1"/>
-        <v>5672766921</v>
+        <v>1112133</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2">
@@ -6101,8 +6003,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" si="1"/>
-        <v>6807320305</v>
+        <v>1157905</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2">
@@ -6156,8 +6057,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="2">
-        <f t="shared" si="1"/>
-        <v>8168784366</v>
+        <v>1204801</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2">
@@ -6211,8 +6111,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="2">
-        <f t="shared" si="1"/>
-        <v>9802541239</v>
+        <v>1252818</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2">
@@ -6266,8 +6165,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="2">
-        <f t="shared" si="1"/>
-        <v>11763049486</v>
+        <v>1301952</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2">
@@ -6321,8 +6219,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="2">
-        <f t="shared" si="1"/>
-        <v>14115659383</v>
+        <v>1352199</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2">
@@ -6376,8 +6273,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2">
-        <f t="shared" si="1"/>
-        <v>16938791259</v>
+        <v>1403552</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2">
@@ -6431,8 +6327,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2">
-        <f t="shared" si="1"/>
-        <v>20326549510</v>
+        <v>1456005</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2">
@@ -6486,8 +6381,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2">
-        <f t="shared" si="1"/>
-        <v>24391859412</v>
+        <v>1509551</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2">
@@ -6534,6 +6428,734 @@
       </c>
       <c r="R109" s="2">
         <v>500</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>1564180</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>1619883</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>1676650</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>1734469</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>1793328</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>1853213</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>1914111</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>1976007</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>2038885</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>2102729</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>2167522</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>2233246</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>2299882</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>2367412</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>2435816</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>2505074</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>2575165</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>2646067</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>2717759</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>2790219</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>2863424</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>2937352</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>3011979</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>3087281</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>3163234</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>3239815</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>3316998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>3394760</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>3473075</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>3551919</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>3631266</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>3711092</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>3791371</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>3872079</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>3953190</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>4034679</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>4116521</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>4198851</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>4282828</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>4368484</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>4455853</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>4544970</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>4635869</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>4728586</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>4823157</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>4919620</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>5018012</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>5118372</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>5220739</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>5325153</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>5431656</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>5540289</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>5651094</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>5764115</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>5879397</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>5996984</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>6116923</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>6239261</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>6364046</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>6491326</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>6621152</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>6753575</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>6888646</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7026418</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7166946</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7310284</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7456489</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7605618</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7757730</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7912884</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>8071141</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>8232563</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>8397214</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>8565158</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>8736461</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>8911190</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>9089413</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>9271201</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>9456625</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>9645757</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>9838672</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>10035445</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>10236153</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>10440876</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>10649693</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>10862686</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>11079939</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>11301537</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>11527567</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>11758118</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>11993280</v>
       </c>
     </row>
   </sheetData>
